--- a/Output/Spring_Chinook_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Spring_Chinook_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z92"/>
+  <dimension ref="A1:Z87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6489,19 +6489,19 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K63">
         <v>1</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -6522,13 +6522,13 @@
         <v>1</v>
       </c>
       <c r="S63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T63">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="U63">
-        <v>0.3555555555555556</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V63">
         <v>5</v>
@@ -6538,24 +6538,24 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -6596,7 +6596,7 @@
         <v>5</v>
       </c>
       <c r="K64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L64">
         <v>1</v>
@@ -6605,28 +6605,28 @@
         <v>1</v>
       </c>
       <c r="N64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O64">
         <v>3</v>
       </c>
       <c r="P64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q64">
         <v>1</v>
       </c>
       <c r="R64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S64">
         <v>1</v>
       </c>
       <c r="T64">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="U64">
-        <v>0.4666666666666667</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="V64">
         <v>5</v>
@@ -6636,12 +6636,12 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
@@ -6653,7 +6653,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -6694,7 +6694,7 @@
         <v>5</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -6706,7 +6706,7 @@
         <v>3</v>
       </c>
       <c r="O65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P65">
         <v>3</v>
@@ -6721,10 +6721,10 @@
         <v>1</v>
       </c>
       <c r="T65">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U65">
-        <v>0.3777777777777778</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V65">
         <v>5</v>
@@ -6734,12 +6734,12 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -6751,7 +6751,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -6849,7 +6849,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -6947,7 +6947,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -6979,16 +6979,16 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -6997,28 +6997,28 @@
         <v>1</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q68">
         <v>1</v>
       </c>
       <c r="R68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S68">
         <v>1</v>
       </c>
       <c r="T68">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U68">
-        <v>0.3333333333333333</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V68">
         <v>5</v>
@@ -7028,24 +7028,24 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Twisp River Lower 09</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -7074,13 +7074,13 @@
         </is>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J69">
         <v>3</v>
@@ -7092,31 +7092,31 @@
         <v>1</v>
       </c>
       <c r="M69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S69">
         <v>1</v>
       </c>
       <c r="T69">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="U69">
-        <v>0.5555555555555556</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V69">
         <v>5</v>
@@ -7126,24 +7126,24 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -7181,13 +7181,13 @@
         <v>3</v>
       </c>
       <c r="J70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M70">
         <v>3</v>
@@ -7196,25 +7196,25 @@
         <v>3</v>
       </c>
       <c r="O70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S70">
         <v>1</v>
       </c>
       <c r="T70">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U70">
-        <v>0.5111111111111111</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V70">
         <v>5</v>
@@ -7224,24 +7224,24 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -7273,28 +7273,28 @@
         <v>3</v>
       </c>
       <c r="H71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K71">
         <v>1</v>
       </c>
       <c r="L71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P71">
         <v>1</v>
@@ -7309,10 +7309,10 @@
         <v>1</v>
       </c>
       <c r="T71">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="U71">
-        <v>0.4</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V71">
         <v>5</v>
@@ -7322,24 +7322,24 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>CoarseSubstrate</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -7349,7 +7349,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -7371,13 +7371,13 @@
         <v>3</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K72">
         <v>1</v>
@@ -7386,31 +7386,31 @@
         <v>5</v>
       </c>
       <c r="M72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N72">
         <v>1</v>
       </c>
       <c r="O72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q72">
         <v>1</v>
       </c>
       <c r="R72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S72">
         <v>1</v>
       </c>
       <c r="T72">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="U72">
-        <v>0.5333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="V72">
         <v>5</v>
@@ -7420,24 +7420,24 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -7475,7 +7475,7 @@
         <v>3</v>
       </c>
       <c r="J73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K73">
         <v>1</v>
@@ -7493,22 +7493,22 @@
         <v>3</v>
       </c>
       <c r="P73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q73">
         <v>1</v>
       </c>
       <c r="R73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S73">
         <v>1</v>
       </c>
       <c r="T73">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="U73">
-        <v>0.4666666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V73">
         <v>5</v>
@@ -7518,24 +7518,24 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -7573,67 +7573,67 @@
         <v>3</v>
       </c>
       <c r="J74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M74">
         <v>3</v>
       </c>
       <c r="N74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S74">
         <v>1</v>
       </c>
       <c r="T74">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="U74">
-        <v>0.7333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V74">
         <v>5</v>
       </c>
       <c r="W74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -7677,7 +7677,7 @@
         <v>5</v>
       </c>
       <c r="L75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M75">
         <v>3</v>
@@ -7701,10 +7701,10 @@
         <v>1</v>
       </c>
       <c r="T75">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U75">
-        <v>0.7777777777777778</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V75">
         <v>5</v>
@@ -7719,19 +7719,19 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -7760,31 +7760,31 @@
         </is>
       </c>
       <c r="G76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H76">
         <v>3</v>
       </c>
       <c r="I76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L76">
         <v>5</v>
       </c>
       <c r="M76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P76">
         <v>3</v>
@@ -7799,37 +7799,37 @@
         <v>1</v>
       </c>
       <c r="T76">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="U76">
-        <v>0.5777777777777777</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V76">
         <v>5</v>
       </c>
       <c r="W76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Twisp River Middle 06</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -7927,7 +7927,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -8025,7 +8025,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -8057,13 +8057,13 @@
         <v>5</v>
       </c>
       <c r="H79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -8075,65 +8075,65 @@
         <v>5</v>
       </c>
       <c r="N79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R79">
         <v>3</v>
       </c>
       <c r="S79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T79">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="U79">
-        <v>0.7777777777777778</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V79">
         <v>5</v>
       </c>
       <c r="W79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Wenatchee River Beaver 05</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -8152,13 +8152,13 @@
         </is>
       </c>
       <c r="G80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J80">
         <v>5</v>
@@ -8173,10 +8173,10 @@
         <v>3</v>
       </c>
       <c r="N80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P80">
         <v>5</v>
@@ -8188,50 +8188,50 @@
         <v>4</v>
       </c>
       <c r="S80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T80">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="U80">
-        <v>0.6666666666666666</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V80">
         <v>5</v>
       </c>
       <c r="W80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Wenatchee River Beaver 06</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -8250,19 +8250,19 @@
         </is>
       </c>
       <c r="G81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H81">
         <v>3</v>
       </c>
       <c r="I81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J81">
         <v>5</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L81">
         <v>5</v>
@@ -8274,25 +8274,25 @@
         <v>3</v>
       </c>
       <c r="O81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q81">
         <v>3</v>
       </c>
       <c r="R81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T81">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U81">
-        <v>0.6666666666666666</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V81">
         <v>5</v>
@@ -8300,26 +8300,21 @@
       <c r="W81">
         <v>1</v>
       </c>
-      <c r="X81" t="inlineStr">
-        <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
-        </is>
-      </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 02</t>
+          <t>Wenatchee River Beaver 07</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -8348,19 +8343,19 @@
         </is>
       </c>
       <c r="G82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J82">
         <v>5</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L82">
         <v>5</v>
@@ -8369,55 +8364,50 @@
         <v>3</v>
       </c>
       <c r="N82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O82">
         <v>3</v>
       </c>
       <c r="P82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q82">
         <v>3</v>
       </c>
       <c r="R82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S82">
         <v>3</v>
       </c>
       <c r="T82">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="U82">
-        <v>0.7555555555555555</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V82">
         <v>5</v>
       </c>
       <c r="W82">
-        <v>3</v>
-      </c>
-      <c r="X82" t="inlineStr">
-        <is>
-          <t>Cover-Wood</t>
-        </is>
+        <v>1</v>
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 03</t>
+          <t>Wenatchee River Beaver 08</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -8449,25 +8439,25 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L83">
         <v>5</v>
       </c>
       <c r="M83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O83">
         <v>3</v>
@@ -8485,10 +8475,10 @@
         <v>3</v>
       </c>
       <c r="T83">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="U83">
-        <v>0.6444444444444445</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V83">
         <v>5</v>
@@ -8496,21 +8486,26 @@
       <c r="W83">
         <v>1</v>
       </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+        </is>
+      </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 04</t>
+          <t>Wenatchee River Beaver 09</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -8551,16 +8546,16 @@
         <v>5</v>
       </c>
       <c r="K84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L84">
         <v>5</v>
       </c>
       <c r="M84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O84">
         <v>3</v>
@@ -8569,19 +8564,19 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S84">
         <v>3</v>
       </c>
       <c r="T84">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="U84">
-        <v>0.6444444444444445</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V84">
         <v>5</v>
@@ -8589,9 +8584,14 @@
       <c r="W84">
         <v>1</v>
       </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
@@ -8603,7 +8603,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 05</t>
+          <t>Wenatchee River Beaver 10</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -8635,13 +8635,13 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K85">
         <v>1</v>
@@ -8662,19 +8662,19 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S85">
         <v>3</v>
       </c>
       <c r="T85">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="U85">
-        <v>0.4444444444444444</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V85">
         <v>5</v>
@@ -8684,24 +8684,24 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 06</t>
+          <t>Wenatchee River Beaver 11</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -8730,43 +8730,43 @@
         </is>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H86">
         <v>3</v>
       </c>
       <c r="I86">
+        <v>3</v>
+      </c>
+      <c r="J86">
+        <v>5</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>5</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>3</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>3</v>
+      </c>
+      <c r="R86">
         <v>2</v>
       </c>
-      <c r="J86">
-        <v>5</v>
-      </c>
-      <c r="K86">
-        <v>1</v>
-      </c>
-      <c r="L86">
-        <v>5</v>
-      </c>
-      <c r="M86">
-        <v>1</v>
-      </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-      <c r="O86">
-        <v>3</v>
-      </c>
-      <c r="P86">
-        <v>1</v>
-      </c>
-      <c r="Q86">
-        <v>1</v>
-      </c>
-      <c r="R86">
-        <v>1</v>
-      </c>
       <c r="S86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T86">
         <v>22</v>
@@ -8782,12 +8782,12 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
@@ -8799,7 +8799,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 07</t>
+          <t>Wenatchee River Beaver 12</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -8828,13 +8828,13 @@
         </is>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H87">
         <v>3</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J87">
         <v>5</v>
@@ -8852,19 +8852,19 @@
         <v>1</v>
       </c>
       <c r="O87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T87">
         <v>22</v>
@@ -8880,507 +8880,17 @@
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Riparian</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 08</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G88">
-        <v>3</v>
-      </c>
-      <c r="H88">
-        <v>3</v>
-      </c>
-      <c r="I88">
-        <v>3</v>
-      </c>
-      <c r="J88">
-        <v>5</v>
-      </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-      <c r="L88">
-        <v>5</v>
-      </c>
-      <c r="M88">
-        <v>1</v>
-      </c>
-      <c r="N88">
-        <v>3</v>
-      </c>
-      <c r="O88">
-        <v>1</v>
-      </c>
-      <c r="P88">
-        <v>1</v>
-      </c>
-      <c r="Q88">
-        <v>3</v>
-      </c>
-      <c r="R88">
-        <v>2</v>
-      </c>
-      <c r="S88">
-        <v>1</v>
-      </c>
-      <c r="T88">
-        <v>22</v>
-      </c>
-      <c r="U88">
-        <v>0.4888888888888889</v>
-      </c>
-      <c r="V88">
-        <v>5</v>
-      </c>
-      <c r="W88">
-        <v>1</v>
-      </c>
-      <c r="X88" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y88" t="inlineStr">
-        <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
-        </is>
-      </c>
-      <c r="Z88" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 09</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G89">
-        <v>5</v>
-      </c>
-      <c r="H89">
-        <v>3</v>
-      </c>
-      <c r="I89">
-        <v>4</v>
-      </c>
-      <c r="J89">
-        <v>5</v>
-      </c>
-      <c r="K89">
-        <v>1</v>
-      </c>
-      <c r="L89">
-        <v>5</v>
-      </c>
-      <c r="M89">
-        <v>1</v>
-      </c>
-      <c r="N89">
-        <v>1</v>
-      </c>
-      <c r="O89">
-        <v>1</v>
-      </c>
-      <c r="P89">
-        <v>3</v>
-      </c>
-      <c r="Q89">
-        <v>3</v>
-      </c>
-      <c r="R89">
-        <v>3</v>
-      </c>
-      <c r="S89">
-        <v>1</v>
-      </c>
-      <c r="T89">
-        <v>22</v>
-      </c>
-      <c r="U89">
-        <v>0.4888888888888889</v>
-      </c>
-      <c r="V89">
-        <v>5</v>
-      </c>
-      <c r="W89">
-        <v>1</v>
-      </c>
-      <c r="X89" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y89" t="inlineStr">
-        <is>
-          <t>Riparian</t>
-        </is>
-      </c>
-      <c r="Z89" t="inlineStr">
-        <is>
           <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 10</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G90">
-        <v>5</v>
-      </c>
-      <c r="H90">
-        <v>3</v>
-      </c>
-      <c r="I90">
-        <v>4</v>
-      </c>
-      <c r="J90">
-        <v>3</v>
-      </c>
-      <c r="K90">
-        <v>3</v>
-      </c>
-      <c r="L90">
-        <v>5</v>
-      </c>
-      <c r="M90">
-        <v>3</v>
-      </c>
-      <c r="N90">
-        <v>3</v>
-      </c>
-      <c r="O90">
-        <v>3</v>
-      </c>
-      <c r="P90">
-        <v>3</v>
-      </c>
-      <c r="Q90">
-        <v>3</v>
-      </c>
-      <c r="R90">
-        <v>3</v>
-      </c>
-      <c r="S90">
-        <v>1</v>
-      </c>
-      <c r="T90">
-        <v>28</v>
-      </c>
-      <c r="U90">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="V90">
-        <v>5</v>
-      </c>
-      <c r="W90">
-        <v>1</v>
-      </c>
-      <c r="X90" t="inlineStr">
-        <is>
-          <t>Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y90" t="inlineStr">
-        <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z90" t="inlineStr">
-        <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 11</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G91">
-        <v>5</v>
-      </c>
-      <c r="H91">
-        <v>1</v>
-      </c>
-      <c r="I91">
-        <v>3</v>
-      </c>
-      <c r="J91">
-        <v>3</v>
-      </c>
-      <c r="K91">
-        <v>1</v>
-      </c>
-      <c r="L91">
-        <v>5</v>
-      </c>
-      <c r="M91">
-        <v>3</v>
-      </c>
-      <c r="N91">
-        <v>3</v>
-      </c>
-      <c r="O91">
-        <v>3</v>
-      </c>
-      <c r="P91">
-        <v>3</v>
-      </c>
-      <c r="Q91">
-        <v>3</v>
-      </c>
-      <c r="R91">
-        <v>3</v>
-      </c>
-      <c r="S91">
-        <v>1</v>
-      </c>
-      <c r="T91">
-        <v>25</v>
-      </c>
-      <c r="U91">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="V91">
-        <v>5</v>
-      </c>
-      <c r="W91">
-        <v>1</v>
-      </c>
-      <c r="X91" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y91" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z91" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 12</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="H92">
-        <v>3</v>
-      </c>
-      <c r="I92">
-        <v>2</v>
-      </c>
-      <c r="J92">
-        <v>5</v>
-      </c>
-      <c r="K92">
-        <v>1</v>
-      </c>
-      <c r="L92">
-        <v>5</v>
-      </c>
-      <c r="M92">
-        <v>3</v>
-      </c>
-      <c r="N92">
-        <v>3</v>
-      </c>
-      <c r="O92">
-        <v>3</v>
-      </c>
-      <c r="P92">
-        <v>3</v>
-      </c>
-      <c r="Q92">
-        <v>3</v>
-      </c>
-      <c r="R92">
-        <v>3</v>
-      </c>
-      <c r="S92">
-        <v>1</v>
-      </c>
-      <c r="T92">
-        <v>26</v>
-      </c>
-      <c r="U92">
-        <v>0.5777777777777777</v>
-      </c>
-      <c r="V92">
-        <v>5</v>
-      </c>
-      <c r="W92">
-        <v>1</v>
-      </c>
-      <c r="X92" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y92" t="inlineStr">
-        <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z92" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>

--- a/Output/Spring_Chinook_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Spring_Chinook_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z87"/>
+  <dimension ref="A1:Z88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6068,7 +6068,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Nason Creek Lower 11</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -6106,40 +6106,40 @@
         <v>3</v>
       </c>
       <c r="J59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L59">
         <v>3</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N59">
         <v>1</v>
       </c>
       <c r="O59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P59">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S59">
         <v>1</v>
       </c>
       <c r="T59">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="U59">
-        <v>0.3777777777777778</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V59">
         <v>5</v>
@@ -6149,24 +6149,24 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6264,7 +6264,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -6317,7 +6317,7 @@
         <v>1</v>
       </c>
       <c r="O61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P61">
         <v>1</v>
@@ -6332,10 +6332,10 @@
         <v>1</v>
       </c>
       <c r="T61">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U61">
-        <v>0.3333333333333333</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V61">
         <v>5</v>
@@ -6345,12 +6345,12 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
@@ -6362,7 +6362,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -6403,34 +6403,37 @@
         <v>3</v>
       </c>
       <c r="K62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P62">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
       </c>
       <c r="R62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S62">
         <v>1</v>
       </c>
       <c r="T62">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="U62">
-        <v>0.6</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V62">
         <v>5</v>
@@ -6440,34 +6443,34 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Twisp River Lower 01</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -6486,49 +6489,46 @@
         </is>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J63">
         <v>3</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O63">
         <v>3</v>
       </c>
       <c r="P63">
-        <v>1</v>
-      </c>
-      <c r="Q63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T63">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="U63">
-        <v>0.4222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="V63">
         <v>5</v>
@@ -6538,24 +6538,24 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Twisp River Lower 01</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -6587,19 +6587,19 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K64">
         <v>1</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M64">
         <v>1</v>
@@ -6620,13 +6620,13 @@
         <v>1</v>
       </c>
       <c r="S64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T64">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="U64">
-        <v>0.3555555555555556</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V64">
         <v>5</v>
@@ -6636,24 +6636,24 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -6694,7 +6694,7 @@
         <v>5</v>
       </c>
       <c r="K65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -6703,28 +6703,28 @@
         <v>1</v>
       </c>
       <c r="N65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O65">
         <v>3</v>
       </c>
       <c r="P65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q65">
         <v>1</v>
       </c>
       <c r="R65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S65">
         <v>1</v>
       </c>
       <c r="T65">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="U65">
-        <v>0.4666666666666667</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="V65">
         <v>5</v>
@@ -6734,12 +6734,12 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -6751,7 +6751,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -6792,7 +6792,7 @@
         <v>5</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -6804,7 +6804,7 @@
         <v>3</v>
       </c>
       <c r="O66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P66">
         <v>3</v>
@@ -6819,10 +6819,10 @@
         <v>1</v>
       </c>
       <c r="T66">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U66">
-        <v>0.3777777777777778</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V66">
         <v>5</v>
@@ -6832,12 +6832,12 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -6849,7 +6849,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -6947,7 +6947,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -7045,7 +7045,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -7077,16 +7077,16 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -7095,28 +7095,28 @@
         <v>1</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q69">
         <v>1</v>
       </c>
       <c r="R69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S69">
         <v>1</v>
       </c>
       <c r="T69">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U69">
-        <v>0.3333333333333333</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V69">
         <v>5</v>
@@ -7126,24 +7126,24 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Twisp River Lower 09</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -7172,13 +7172,13 @@
         </is>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J70">
         <v>3</v>
@@ -7190,31 +7190,31 @@
         <v>1</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S70">
         <v>1</v>
       </c>
       <c r="T70">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="U70">
-        <v>0.5555555555555556</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V70">
         <v>5</v>
@@ -7224,24 +7224,24 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -7279,13 +7279,13 @@
         <v>3</v>
       </c>
       <c r="J71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M71">
         <v>3</v>
@@ -7294,25 +7294,25 @@
         <v>3</v>
       </c>
       <c r="O71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S71">
         <v>1</v>
       </c>
       <c r="T71">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U71">
-        <v>0.5111111111111111</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V71">
         <v>5</v>
@@ -7322,24 +7322,24 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -7349,7 +7349,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -7371,28 +7371,28 @@
         <v>3</v>
       </c>
       <c r="H72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K72">
         <v>1</v>
       </c>
       <c r="L72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P72">
         <v>1</v>
@@ -7407,10 +7407,10 @@
         <v>1</v>
       </c>
       <c r="T72">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="U72">
-        <v>0.4</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V72">
         <v>5</v>
@@ -7420,24 +7420,24 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>CoarseSubstrate</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -7469,13 +7469,13 @@
         <v>3</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K73">
         <v>1</v>
@@ -7484,31 +7484,31 @@
         <v>5</v>
       </c>
       <c r="M73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N73">
         <v>1</v>
       </c>
       <c r="O73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q73">
         <v>1</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S73">
         <v>1</v>
       </c>
       <c r="T73">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="U73">
-        <v>0.5333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="V73">
         <v>5</v>
@@ -7518,24 +7518,24 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -7573,7 +7573,7 @@
         <v>3</v>
       </c>
       <c r="J74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -7591,22 +7591,22 @@
         <v>3</v>
       </c>
       <c r="P74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q74">
         <v>1</v>
       </c>
       <c r="R74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S74">
         <v>1</v>
       </c>
       <c r="T74">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="U74">
-        <v>0.4666666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V74">
         <v>5</v>
@@ -7616,24 +7616,24 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -7671,67 +7671,67 @@
         <v>3</v>
       </c>
       <c r="J75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L75">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M75">
         <v>3</v>
       </c>
       <c r="N75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S75">
         <v>1</v>
       </c>
       <c r="T75">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="U75">
-        <v>0.7333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V75">
         <v>5</v>
       </c>
       <c r="W75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -7775,7 +7775,7 @@
         <v>5</v>
       </c>
       <c r="L76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M76">
         <v>3</v>
@@ -7799,10 +7799,10 @@
         <v>1</v>
       </c>
       <c r="T76">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U76">
-        <v>0.7777777777777778</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V76">
         <v>5</v>
@@ -7817,19 +7817,19 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -7858,31 +7858,31 @@
         </is>
       </c>
       <c r="G77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H77">
         <v>3</v>
       </c>
       <c r="I77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L77">
         <v>5</v>
       </c>
       <c r="M77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P77">
         <v>3</v>
@@ -7897,37 +7897,37 @@
         <v>1</v>
       </c>
       <c r="T77">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="U77">
-        <v>0.5777777777777777</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V77">
         <v>5</v>
       </c>
       <c r="W77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Twisp River Middle 06</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -8025,7 +8025,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -8123,17 +8123,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 05</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -8155,13 +8155,13 @@
         <v>5</v>
       </c>
       <c r="H80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -8170,58 +8170,58 @@
         <v>5</v>
       </c>
       <c r="M80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O80">
         <v>3</v>
       </c>
       <c r="P80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q80">
         <v>3</v>
       </c>
       <c r="R80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T80">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="U80">
-        <v>0.7555555555555555</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V80">
         <v>5</v>
       </c>
       <c r="W80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 06</t>
+          <t>Wenatchee River Beaver 05</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -8250,19 +8250,19 @@
         </is>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J81">
         <v>5</v>
       </c>
       <c r="K81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L81">
         <v>5</v>
@@ -8271,50 +8271,55 @@
         <v>3</v>
       </c>
       <c r="N81">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O81">
         <v>3</v>
       </c>
       <c r="P81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q81">
         <v>3</v>
       </c>
       <c r="R81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S81">
         <v>3</v>
       </c>
       <c r="T81">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="U81">
-        <v>0.6444444444444445</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V81">
         <v>5</v>
       </c>
       <c r="W81">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>Cover-Wood</t>
+        </is>
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 07</t>
+          <t>Wenatchee River Beaver 06</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -8407,7 +8412,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 08</t>
+          <t>Wenatchee River Beaver 07</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -8439,25 +8444,25 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L83">
         <v>5</v>
       </c>
       <c r="M83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O83">
         <v>3</v>
@@ -8475,10 +8480,10 @@
         <v>3</v>
       </c>
       <c r="T83">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="U83">
-        <v>0.4444444444444444</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V83">
         <v>5</v>
@@ -8486,26 +8491,21 @@
       <c r="W83">
         <v>1</v>
       </c>
-      <c r="X83" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
-        </is>
-      </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 09</t>
+          <t>Wenatchee River Beaver 08</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -8537,46 +8537,46 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>3</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>5</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>3</v>
+      </c>
+      <c r="P84">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>3</v>
+      </c>
+      <c r="R84">
         <v>2</v>
       </c>
-      <c r="J84">
-        <v>5</v>
-      </c>
-      <c r="K84">
-        <v>1</v>
-      </c>
-      <c r="L84">
-        <v>5</v>
-      </c>
-      <c r="M84">
-        <v>1</v>
-      </c>
-      <c r="N84">
-        <v>1</v>
-      </c>
-      <c r="O84">
-        <v>3</v>
-      </c>
-      <c r="P84">
-        <v>1</v>
-      </c>
-      <c r="Q84">
-        <v>1</v>
-      </c>
-      <c r="R84">
-        <v>1</v>
-      </c>
       <c r="S84">
         <v>3</v>
       </c>
       <c r="T84">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U84">
-        <v>0.4888888888888889</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V84">
         <v>5</v>
@@ -8586,24 +8586,24 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 10</t>
+          <t>Wenatchee River Beaver 09</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -8701,7 +8701,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 11</t>
+          <t>Wenatchee River Beaver 10</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -8730,13 +8730,13 @@
         </is>
       </c>
       <c r="G86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H86">
         <v>3</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J86">
         <v>5</v>
@@ -8751,22 +8751,22 @@
         <v>1</v>
       </c>
       <c r="N86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P86">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T86">
         <v>22</v>
@@ -8782,12 +8782,12 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
@@ -8799,7 +8799,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 12</t>
+          <t>Wenatchee River Beaver 11</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -8828,13 +8828,13 @@
         </is>
       </c>
       <c r="G87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H87">
         <v>3</v>
       </c>
       <c r="I87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J87">
         <v>5</v>
@@ -8849,19 +8849,19 @@
         <v>1</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O87">
         <v>1</v>
       </c>
       <c r="P87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q87">
         <v>3</v>
       </c>
       <c r="R87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S87">
         <v>1</v>
@@ -8880,15 +8880,113 @@
       </c>
       <c r="X87" t="inlineStr">
         <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z87" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 12</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G88">
+        <v>5</v>
+      </c>
+      <c r="H88">
+        <v>3</v>
+      </c>
+      <c r="I88">
+        <v>4</v>
+      </c>
+      <c r="J88">
+        <v>5</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>5</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="P88">
+        <v>3</v>
+      </c>
+      <c r="Q88">
+        <v>3</v>
+      </c>
+      <c r="R88">
+        <v>3</v>
+      </c>
+      <c r="S88">
+        <v>1</v>
+      </c>
+      <c r="T88">
+        <v>22</v>
+      </c>
+      <c r="U88">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="V88">
+        <v>5</v>
+      </c>
+      <c r="W88">
+        <v>1</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
           <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
-      <c r="Y87" t="inlineStr">
+      <c r="Y88" t="inlineStr">
         <is>
           <t>Riparian</t>
         </is>
       </c>
-      <c r="Z87" t="inlineStr">
+      <c r="Z88" t="inlineStr">
         <is>
           <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>

--- a/Output/Spring_Chinook_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Spring_Chinook_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z88"/>
+  <dimension ref="A1:Z93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6106,7 +6106,7 @@
         <v>3</v>
       </c>
       <c r="J59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -6136,10 +6136,10 @@
         <v>1</v>
       </c>
       <c r="T59">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U59">
-        <v>0.4888888888888889</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V59">
         <v>5</v>
@@ -6154,12 +6154,12 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -6587,19 +6587,19 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K64">
         <v>1</v>
       </c>
       <c r="L64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M64">
         <v>1</v>
@@ -6620,13 +6620,13 @@
         <v>1</v>
       </c>
       <c r="S64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T64">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="U64">
-        <v>0.4222222222222222</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="V64">
         <v>5</v>
@@ -6636,24 +6636,24 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Stability,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -6694,7 +6694,7 @@
         <v>5</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -6703,28 +6703,28 @@
         <v>1</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O65">
         <v>3</v>
       </c>
       <c r="P65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q65">
         <v>1</v>
       </c>
       <c r="R65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S65">
         <v>1</v>
       </c>
       <c r="T65">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="U65">
-        <v>0.3555555555555556</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V65">
         <v>5</v>
@@ -6734,12 +6734,12 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -6751,7 +6751,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -6792,7 +6792,7 @@
         <v>5</v>
       </c>
       <c r="K66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -6804,7 +6804,7 @@
         <v>3</v>
       </c>
       <c r="O66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P66">
         <v>3</v>
@@ -6819,10 +6819,10 @@
         <v>1</v>
       </c>
       <c r="T66">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="U66">
-        <v>0.4666666666666667</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V66">
         <v>5</v>
@@ -6832,12 +6832,12 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -6849,7 +6849,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -6947,7 +6947,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -7045,7 +7045,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -7077,16 +7077,16 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -7095,28 +7095,28 @@
         <v>1</v>
       </c>
       <c r="N69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q69">
         <v>1</v>
       </c>
       <c r="R69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S69">
         <v>1</v>
       </c>
       <c r="T69">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U69">
-        <v>0.3777777777777778</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V69">
         <v>5</v>
@@ -7126,24 +7126,24 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -7172,13 +7172,13 @@
         </is>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J70">
         <v>3</v>
@@ -7190,31 +7190,31 @@
         <v>1</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S70">
         <v>1</v>
       </c>
       <c r="T70">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="U70">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V70">
         <v>5</v>
@@ -7224,24 +7224,24 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -7279,13 +7279,13 @@
         <v>3</v>
       </c>
       <c r="J71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M71">
         <v>3</v>
@@ -7294,25 +7294,25 @@
         <v>3</v>
       </c>
       <c r="O71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S71">
         <v>1</v>
       </c>
       <c r="T71">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="U71">
-        <v>0.5555555555555556</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V71">
         <v>5</v>
@@ -7322,24 +7322,24 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Twisp River Lower 09</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -7371,28 +7371,28 @@
         <v>3</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K72">
         <v>1</v>
       </c>
       <c r="L72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P72">
         <v>1</v>
@@ -7407,10 +7407,10 @@
         <v>1</v>
       </c>
       <c r="T72">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="U72">
-        <v>0.5111111111111111</v>
+        <v>0.4</v>
       </c>
       <c r="V72">
         <v>5</v>
@@ -7420,24 +7420,24 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>CoarseSubstrate</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -7469,13 +7469,13 @@
         <v>3</v>
       </c>
       <c r="H73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K73">
         <v>1</v>
@@ -7484,31 +7484,31 @@
         <v>5</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N73">
         <v>1</v>
       </c>
       <c r="O73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q73">
         <v>1</v>
       </c>
       <c r="R73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S73">
         <v>1</v>
       </c>
       <c r="T73">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="U73">
-        <v>0.4</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V73">
         <v>5</v>
@@ -7518,24 +7518,24 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>CoarseSubstrate</t>
+          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -7545,7 +7545,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -7573,7 +7573,7 @@
         <v>3</v>
       </c>
       <c r="J74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -7591,22 +7591,22 @@
         <v>3</v>
       </c>
       <c r="P74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q74">
         <v>1</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S74">
         <v>1</v>
       </c>
       <c r="T74">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="U74">
-        <v>0.5333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V74">
         <v>5</v>
@@ -7616,24 +7616,24 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -7671,67 +7671,67 @@
         <v>3</v>
       </c>
       <c r="J75">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M75">
         <v>3</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O75">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S75">
         <v>1</v>
       </c>
       <c r="T75">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="U75">
-        <v>0.4666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V75">
         <v>5</v>
       </c>
       <c r="W75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -7775,7 +7775,7 @@
         <v>5</v>
       </c>
       <c r="L76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M76">
         <v>3</v>
@@ -7799,10 +7799,10 @@
         <v>1</v>
       </c>
       <c r="T76">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U76">
-        <v>0.7333333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V76">
         <v>5</v>
@@ -7817,19 +7817,19 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -7858,31 +7858,31 @@
         </is>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H77">
         <v>3</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L77">
         <v>5</v>
       </c>
       <c r="M77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P77">
         <v>3</v>
@@ -7897,37 +7897,37 @@
         <v>1</v>
       </c>
       <c r="T77">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="U77">
-        <v>0.7777777777777778</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V77">
         <v>5</v>
       </c>
       <c r="W77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -8025,7 +8025,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -8123,7 +8123,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Twisp River Middle 06</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -8155,13 +8155,13 @@
         <v>5</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I80">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -8173,65 +8173,65 @@
         <v>5</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R80">
         <v>3</v>
       </c>
       <c r="S80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T80">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="U80">
-        <v>0.5777777777777777</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V80">
         <v>5</v>
       </c>
       <c r="W80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 05</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -8250,13 +8250,13 @@
         </is>
       </c>
       <c r="G81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J81">
         <v>5</v>
@@ -8271,10 +8271,10 @@
         <v>3</v>
       </c>
       <c r="N81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P81">
         <v>5</v>
@@ -8286,50 +8286,50 @@
         <v>4</v>
       </c>
       <c r="S81">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T81">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U81">
-        <v>0.7555555555555555</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V81">
         <v>5</v>
       </c>
       <c r="W81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 06</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -8348,19 +8348,19 @@
         </is>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H82">
         <v>3</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J82">
         <v>5</v>
       </c>
       <c r="K82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L82">
         <v>5</v>
@@ -8372,25 +8372,25 @@
         <v>3</v>
       </c>
       <c r="O82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q82">
         <v>3</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S82">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T82">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U82">
-        <v>0.6444444444444445</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V82">
         <v>5</v>
@@ -8398,21 +8398,26 @@
       <c r="W82">
         <v>1</v>
       </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 07</t>
+          <t>Wenatchee River Beaver 02</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -8441,19 +8446,19 @@
         </is>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J83">
         <v>5</v>
       </c>
       <c r="K83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L83">
         <v>5</v>
@@ -8462,50 +8467,55 @@
         <v>3</v>
       </c>
       <c r="N83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O83">
         <v>3</v>
       </c>
       <c r="P83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q83">
         <v>3</v>
       </c>
       <c r="R83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S83">
         <v>3</v>
       </c>
       <c r="T83">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="U83">
-        <v>0.6444444444444445</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V83">
         <v>5</v>
       </c>
       <c r="W83">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>Cover-Wood</t>
+        </is>
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 08</t>
+          <t>Wenatchee River Beaver 03</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -8537,25 +8547,25 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L84">
         <v>5</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O84">
         <v>3</v>
@@ -8573,10 +8583,10 @@
         <v>3</v>
       </c>
       <c r="T84">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="U84">
-        <v>0.4444444444444444</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V84">
         <v>5</v>
@@ -8584,26 +8594,21 @@
       <c r="W84">
         <v>1</v>
       </c>
-      <c r="X84" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
-        </is>
-      </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 09</t>
+          <t>Wenatchee River Beaver 04</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -8644,16 +8649,16 @@
         <v>5</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L85">
         <v>5</v>
       </c>
       <c r="M85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O85">
         <v>3</v>
@@ -8662,19 +8667,19 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S85">
         <v>3</v>
       </c>
       <c r="T85">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="U85">
-        <v>0.4888888888888889</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V85">
         <v>5</v>
@@ -8682,14 +8687,9 @@
       <c r="W85">
         <v>1</v>
       </c>
-      <c r="X85" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
-        </is>
-      </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
@@ -8701,7 +8701,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 10</t>
+          <t>Wenatchee River Beaver 05</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -8733,46 +8733,46 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>3</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>5</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>3</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>3</v>
+      </c>
+      <c r="R86">
         <v>2</v>
       </c>
-      <c r="J86">
-        <v>5</v>
-      </c>
-      <c r="K86">
-        <v>1</v>
-      </c>
-      <c r="L86">
-        <v>5</v>
-      </c>
-      <c r="M86">
-        <v>1</v>
-      </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-      <c r="O86">
-        <v>3</v>
-      </c>
-      <c r="P86">
-        <v>1</v>
-      </c>
-      <c r="Q86">
-        <v>1</v>
-      </c>
-      <c r="R86">
-        <v>1</v>
-      </c>
       <c r="S86">
         <v>3</v>
       </c>
       <c r="T86">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U86">
-        <v>0.4888888888888889</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V86">
         <v>5</v>
@@ -8782,24 +8782,24 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 11</t>
+          <t>Wenatchee River Beaver 06</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -8828,13 +8828,13 @@
         </is>
       </c>
       <c r="G87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H87">
         <v>3</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J87">
         <v>5</v>
@@ -8849,22 +8849,22 @@
         <v>1</v>
       </c>
       <c r="N87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P87">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T87">
         <v>22</v>
@@ -8880,12 +8880,12 @@
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
@@ -8897,7 +8897,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 12</t>
+          <t>Wenatchee River Beaver 07</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -8926,13 +8926,13 @@
         </is>
       </c>
       <c r="G88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H88">
         <v>3</v>
       </c>
       <c r="I88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J88">
         <v>5</v>
@@ -8950,19 +8950,19 @@
         <v>1</v>
       </c>
       <c r="O88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T88">
         <v>22</v>
@@ -8978,17 +8978,507 @@
       </c>
       <c r="X88" t="inlineStr">
         <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z88" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 08</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G89">
+        <v>3</v>
+      </c>
+      <c r="H89">
+        <v>3</v>
+      </c>
+      <c r="I89">
+        <v>3</v>
+      </c>
+      <c r="J89">
+        <v>5</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>5</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>3</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>3</v>
+      </c>
+      <c r="R89">
+        <v>2</v>
+      </c>
+      <c r="S89">
+        <v>1</v>
+      </c>
+      <c r="T89">
+        <v>22</v>
+      </c>
+      <c r="U89">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="V89">
+        <v>5</v>
+      </c>
+      <c r="W89">
+        <v>1</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 09</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G90">
+        <v>5</v>
+      </c>
+      <c r="H90">
+        <v>3</v>
+      </c>
+      <c r="I90">
+        <v>4</v>
+      </c>
+      <c r="J90">
+        <v>5</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>5</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90">
+        <v>3</v>
+      </c>
+      <c r="Q90">
+        <v>3</v>
+      </c>
+      <c r="R90">
+        <v>3</v>
+      </c>
+      <c r="S90">
+        <v>1</v>
+      </c>
+      <c r="T90">
+        <v>22</v>
+      </c>
+      <c r="U90">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="V90">
+        <v>5</v>
+      </c>
+      <c r="W90">
+        <v>1</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
           <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
-      <c r="Y88" t="inlineStr">
+      <c r="Y90" t="inlineStr">
         <is>
           <t>Riparian</t>
         </is>
       </c>
-      <c r="Z88" t="inlineStr">
+      <c r="Z90" t="inlineStr">
         <is>
           <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 10</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G91">
+        <v>5</v>
+      </c>
+      <c r="H91">
+        <v>3</v>
+      </c>
+      <c r="I91">
+        <v>4</v>
+      </c>
+      <c r="J91">
+        <v>3</v>
+      </c>
+      <c r="K91">
+        <v>3</v>
+      </c>
+      <c r="L91">
+        <v>5</v>
+      </c>
+      <c r="M91">
+        <v>3</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91">
+        <v>3</v>
+      </c>
+      <c r="P91">
+        <v>3</v>
+      </c>
+      <c r="Q91">
+        <v>3</v>
+      </c>
+      <c r="R91">
+        <v>3</v>
+      </c>
+      <c r="S91">
+        <v>1</v>
+      </c>
+      <c r="T91">
+        <v>28</v>
+      </c>
+      <c r="U91">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="V91">
+        <v>5</v>
+      </c>
+      <c r="W91">
+        <v>1</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z91" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 11</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G92">
+        <v>5</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>3</v>
+      </c>
+      <c r="J92">
+        <v>3</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>5</v>
+      </c>
+      <c r="M92">
+        <v>3</v>
+      </c>
+      <c r="N92">
+        <v>3</v>
+      </c>
+      <c r="O92">
+        <v>3</v>
+      </c>
+      <c r="P92">
+        <v>3</v>
+      </c>
+      <c r="Q92">
+        <v>3</v>
+      </c>
+      <c r="R92">
+        <v>3</v>
+      </c>
+      <c r="S92">
+        <v>1</v>
+      </c>
+      <c r="T92">
+        <v>25</v>
+      </c>
+      <c r="U92">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="V92">
+        <v>5</v>
+      </c>
+      <c r="W92">
+        <v>1</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z92" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 12</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>3</v>
+      </c>
+      <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="J93">
+        <v>5</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>5</v>
+      </c>
+      <c r="M93">
+        <v>3</v>
+      </c>
+      <c r="N93">
+        <v>3</v>
+      </c>
+      <c r="O93">
+        <v>3</v>
+      </c>
+      <c r="P93">
+        <v>3</v>
+      </c>
+      <c r="Q93">
+        <v>3</v>
+      </c>
+      <c r="R93">
+        <v>3</v>
+      </c>
+      <c r="S93">
+        <v>1</v>
+      </c>
+      <c r="T93">
+        <v>26</v>
+      </c>
+      <c r="U93">
+        <v>0.5777777777777777</v>
+      </c>
+      <c r="V93">
+        <v>5</v>
+      </c>
+      <c r="W93">
+        <v>1</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z93" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>

--- a/Output/Spring_Chinook_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Spring_Chinook_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z93"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2158,7 +2158,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 10</t>
+          <t>Chewuch River Pearrygin 09</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2256,7 +2256,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 11</t>
+          <t>Chewuch River Pearrygin 10</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2312,22 +2312,22 @@
         <v>5</v>
       </c>
       <c r="P20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q20">
         <v>1</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S20">
         <v>1</v>
       </c>
       <c r="T20">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U20">
-        <v>0.5555555555555556</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V20">
         <v>5</v>
@@ -2354,7 +2354,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chewuch River Thirtymile 02</t>
+          <t>Chewuch River Pearrygin 11</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Chewuch River-Thirtymile Creek</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2386,78 +2386,83 @@
         <v>3</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <v>3</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
         <v>2</v>
       </c>
-      <c r="J21">
-        <v>3</v>
-      </c>
-      <c r="K21">
-        <v>5</v>
-      </c>
-      <c r="L21">
-        <v>3</v>
-      </c>
-      <c r="M21">
-        <v>5</v>
-      </c>
-      <c r="N21">
-        <v>5</v>
-      </c>
-      <c r="O21">
-        <v>3</v>
-      </c>
-      <c r="P21">
-        <v>3</v>
-      </c>
-      <c r="Q21">
-        <v>3</v>
-      </c>
-      <c r="R21">
-        <v>3</v>
-      </c>
       <c r="S21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="U21">
-        <v>0.7555555555555555</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V21">
         <v>5</v>
       </c>
       <c r="W21">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
+        </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 01</t>
+          <t>Chewuch River Thirtymile 01</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Lower Chiwawa River</t>
+          <t>Chewuch River-Thirtymile Creek</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2479,46 +2484,46 @@
         <v>3</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N22">
         <v>1</v>
       </c>
       <c r="O22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T22">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U22">
-        <v>0.6444444444444445</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V22">
         <v>5</v>
@@ -2528,34 +2533,34 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 02</t>
+          <t>Chewuch River Thirtymile 02</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Lower Chiwawa River</t>
+          <t>Chewuch River-Thirtymile Creek</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2577,28 +2582,28 @@
         <v>3</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P23">
         <v>3</v>
@@ -2610,40 +2615,35 @@
         <v>3</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T23">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="U23">
-        <v>0.5555555555555556</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V23">
         <v>5</v>
       </c>
       <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
-        </is>
+        <v>3</v>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>Stability,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 03</t>
+          <t>Chiwawa River Lower 01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2672,13 +2672,13 @@
         </is>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J24">
         <v>5</v>
@@ -2687,10 +2687,10 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2702,19 +2702,19 @@
         <v>5</v>
       </c>
       <c r="Q24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="U24">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V24">
         <v>5</v>
@@ -2724,24 +2724,24 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 04</t>
+          <t>Chiwawa River Lower 02</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2770,13 +2770,13 @@
         </is>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J25">
         <v>5</v>
@@ -2785,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -2797,10 +2797,10 @@
         <v>5</v>
       </c>
       <c r="P25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R25">
         <v>3</v>
@@ -2809,10 +2809,10 @@
         <v>1</v>
       </c>
       <c r="T25">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="U25">
-        <v>0.6</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V25">
         <v>5</v>
@@ -2822,24 +2822,24 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>Riparian</t>
+          <t>Stability,Riparian</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 06</t>
+          <t>Chiwawa River Lower 03</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2883,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -2892,7 +2892,7 @@
         <v>1</v>
       </c>
       <c r="O26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P26">
         <v>5</v>
@@ -2904,13 +2904,13 @@
         <v>4</v>
       </c>
       <c r="S26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T26">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="U26">
-        <v>0.6666666666666666</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V26">
         <v>5</v>
@@ -2920,34 +2920,34 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Entiat River Lake 02</t>
+          <t>Chiwawa River Lower 04</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Lower Chiwawa River</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2966,13 +2966,13 @@
         </is>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J27">
         <v>5</v>
@@ -2981,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -2993,22 +2993,22 @@
         <v>5</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T27">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="U27">
-        <v>0.5555555555555556</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V27">
         <v>5</v>
@@ -3018,34 +3018,34 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Riparian</t>
+          <t>Riparian</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Entiat River Lake 03</t>
+          <t>Chiwawa River Lower 05</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Lower Chiwawa River</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3076,74 +3076,74 @@
         <v>5</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N28">
         <v>1</v>
       </c>
       <c r="O28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R28">
         <v>3</v>
       </c>
       <c r="S28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T28">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="U28">
-        <v>0.7777777777777778</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V28">
         <v>5</v>
       </c>
       <c r="W28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian</t>
+          <t>Riparian</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Entiat River Lake 04</t>
+          <t>Chiwawa River Lower 06</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Lower Chiwawa River</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3177,16 +3177,16 @@
         <v>1</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N29">
         <v>1</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P29">
         <v>5</v>
@@ -3201,10 +3201,10 @@
         <v>5</v>
       </c>
       <c r="T29">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="U29">
-        <v>0.6666666666666666</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V29">
         <v>5</v>
@@ -3214,34 +3214,34 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Entiat River Lake 10</t>
+          <t>Chiwawa River Lower 07</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Lower Chiwawa River</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3278,10 +3278,10 @@
         <v>5</v>
       </c>
       <c r="M30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O30">
         <v>3</v>
@@ -3296,40 +3296,40 @@
         <v>5</v>
       </c>
       <c r="S30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T30">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="U30">
-        <v>0.7777777777777778</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V30">
         <v>5</v>
       </c>
       <c r="W30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Entiat River Potato 05</t>
+          <t>Entiat River Lake 02</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3339,7 +3339,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3358,25 +3358,25 @@
         </is>
       </c>
       <c r="G31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J31">
         <v>5</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -3385,49 +3385,49 @@
         <v>5</v>
       </c>
       <c r="P31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q31">
         <v>3</v>
       </c>
       <c r="R31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T31">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="U31">
-        <v>0.7777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V31">
         <v>5</v>
       </c>
       <c r="W31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Entiat River Potato 07</t>
+          <t>Entiat River Lake 03</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3456,13 +3456,13 @@
         </is>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -3474,7 +3474,7 @@
         <v>3</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -3492,19 +3492,19 @@
         <v>3</v>
       </c>
       <c r="S32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T32">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="U32">
-        <v>0.6444444444444445</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V32">
         <v>5</v>
       </c>
       <c r="W32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
@@ -3513,19 +3513,19 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Entiat River Potato 08</t>
+          <t>Entiat River Lake 04</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3554,49 +3554,49 @@
         </is>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J33">
         <v>5</v>
       </c>
       <c r="K33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L33">
         <v>3</v>
       </c>
       <c r="M33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N33">
         <v>1</v>
       </c>
       <c r="O33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q33">
         <v>3</v>
       </c>
       <c r="R33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T33">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U33">
-        <v>0.6888888888888889</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V33">
         <v>5</v>
@@ -3606,24 +3606,24 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Entiat River Preston 01</t>
+          <t>Entiat River Lake 08</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3652,25 +3652,25 @@
         </is>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J34">
         <v>5</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -3679,49 +3679,49 @@
         <v>3</v>
       </c>
       <c r="P34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T34">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="U34">
-        <v>0.6</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V34">
         <v>5</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Entiat River Preston 02</t>
+          <t>Entiat River Lake 10</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3750,49 +3750,49 @@
         </is>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J35">
         <v>5</v>
       </c>
       <c r="K35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T35">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U35">
-        <v>0.7333333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V35">
         <v>5</v>
@@ -3800,21 +3800,26 @@
       <c r="W35">
         <v>3</v>
       </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Side-Channels</t>
+        </is>
+      </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Entiat River Preston 03</t>
+          <t>Entiat River Potato 05</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3824,7 +3829,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3843,22 +3848,22 @@
         </is>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H36">
         <v>5</v>
       </c>
       <c r="I36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J36">
         <v>5</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M36">
         <v>5</v>
@@ -3867,52 +3872,52 @@
         <v>1</v>
       </c>
       <c r="O36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q36">
         <v>3</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T36">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="U36">
-        <v>0.6444444444444445</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V36">
         <v>5</v>
       </c>
       <c r="W36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels</t>
+          <t>Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Entiat River Preston 04</t>
+          <t>Entiat River Potato 07</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3922,7 +3927,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3941,31 +3946,31 @@
         </is>
       </c>
       <c r="G37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J37">
         <v>5</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>3</v>
       </c>
       <c r="M37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N37">
         <v>1</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P37">
         <v>3</v>
@@ -3977,7 +3982,7 @@
         <v>3</v>
       </c>
       <c r="S37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T37">
         <v>29</v>
@@ -3993,34 +3998,34 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Methow River Fawn 01</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4042,10 +4047,10 @@
         <v>3</v>
       </c>
       <c r="H38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J38">
         <v>5</v>
@@ -4054,7 +4059,7 @@
         <v>5</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M38">
         <v>3</v>
@@ -4069,19 +4074,19 @@
         <v>3</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T38">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="U38">
-        <v>0.6</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V38">
         <v>5</v>
@@ -4091,34 +4096,34 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Methow River Fawn 02</t>
+          <t>Entiat River Preston 01</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -4140,10 +4145,10 @@
         <v>3</v>
       </c>
       <c r="H39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -4152,34 +4157,34 @@
         <v>3</v>
       </c>
       <c r="L39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M39">
         <v>3</v>
       </c>
       <c r="N39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P39">
         <v>3</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T39">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="U39">
-        <v>0.6888888888888889</v>
+        <v>0.6</v>
       </c>
       <c r="V39">
         <v>5</v>
@@ -4189,34 +4194,34 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Methow River Fawn 03</t>
+          <t>Entiat River Preston 02</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -4235,25 +4240,25 @@
         </is>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H40">
         <v>3</v>
       </c>
       <c r="I40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J40">
         <v>5</v>
       </c>
       <c r="K40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L40">
         <v>3</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N40">
         <v>3</v>
@@ -4265,56 +4270,51 @@
         <v>3</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T40">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="U40">
-        <v>0.6</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V40">
         <v>5</v>
       </c>
       <c r="W40">
-        <v>1</v>
-      </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>Off-Channel-Floodplain,Temperature-Rearing</t>
-        </is>
+        <v>3</v>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Entiat River Preston 03</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -4333,19 +4333,19 @@
         </is>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H41">
         <v>5</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J41">
         <v>5</v>
       </c>
       <c r="K41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L41">
         <v>3</v>
@@ -4357,62 +4357,62 @@
         <v>1</v>
       </c>
       <c r="O41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q41">
         <v>3</v>
       </c>
       <c r="R41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T41">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="U41">
-        <v>0.7111111111111111</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V41">
         <v>5</v>
       </c>
       <c r="W41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow</t>
+          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Methow River Fawn 05</t>
+          <t>Entiat River Preston 04</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -4431,49 +4431,49 @@
         </is>
       </c>
       <c r="G42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H42">
         <v>5</v>
       </c>
       <c r="I42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J42">
         <v>5</v>
       </c>
       <c r="K42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P42">
         <v>3</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T42">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="U42">
-        <v>0.5555555555555556</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V42">
         <v>5</v>
@@ -4483,24 +4483,24 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Methow River Fawn 06</t>
+          <t>Methow River Fawn 01</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4529,49 +4529,49 @@
         </is>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43">
+        <v>5</v>
+      </c>
+      <c r="K43">
+        <v>5</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>3</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>5</v>
+      </c>
+      <c r="P43">
+        <v>3</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
         <v>2</v>
       </c>
-      <c r="J43">
-        <v>5</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>1</v>
-      </c>
-      <c r="P43">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>1</v>
-      </c>
-      <c r="R43">
-        <v>1</v>
-      </c>
       <c r="S43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T43">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="U43">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="V43">
         <v>5</v>
@@ -4581,24 +4581,24 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>Stability</t>
+          <t>Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Methow River Fawn 07</t>
+          <t>Methow River Fawn 02</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4627,31 +4627,31 @@
         </is>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J44">
         <v>5</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L44">
         <v>3</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P44">
         <v>3</v>
@@ -4663,13 +4663,13 @@
         <v>2</v>
       </c>
       <c r="S44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T44">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="U44">
-        <v>0.5111111111111111</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V44">
         <v>5</v>
@@ -4679,24 +4679,24 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Methow River Fawn 08</t>
+          <t>Methow River Fawn 03</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4725,31 +4725,31 @@
         </is>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H45">
         <v>3</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J45">
         <v>5</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M45">
         <v>1</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P45">
         <v>3</v>
@@ -4761,13 +4761,13 @@
         <v>2</v>
       </c>
       <c r="S45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T45">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="U45">
-        <v>0.4666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="V45">
         <v>5</v>
@@ -4777,24 +4777,24 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Methow River Fawn 09</t>
+          <t>Methow River Fawn 04</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4823,76 +4823,76 @@
         </is>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J46">
         <v>5</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N46">
         <v>1</v>
       </c>
       <c r="O46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T46">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U46">
-        <v>0.5111111111111111</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V46">
         <v>5</v>
       </c>
       <c r="W46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Methow River Fawn 10</t>
+          <t>Methow River Fawn 05</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4921,49 +4921,49 @@
         </is>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I47">
+        <v>4</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>3</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47">
+        <v>3</v>
+      </c>
+      <c r="P47">
+        <v>3</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47">
         <v>2</v>
       </c>
-      <c r="J47">
-        <v>5</v>
-      </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>3</v>
-      </c>
-      <c r="O47">
-        <v>1</v>
-      </c>
-      <c r="P47">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>1</v>
-      </c>
-      <c r="R47">
-        <v>1</v>
-      </c>
       <c r="S47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T47">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="U47">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V47">
         <v>5</v>
@@ -4973,24 +4973,24 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Methow River Fawn 11</t>
+          <t>Methow River Fawn 06</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5088,7 +5088,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 01</t>
+          <t>Methow River Fawn 07</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -5117,31 +5117,31 @@
         </is>
       </c>
       <c r="G49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H49">
         <v>3</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J49">
         <v>5</v>
       </c>
       <c r="K49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P49">
         <v>3</v>
@@ -5156,37 +5156,37 @@
         <v>5</v>
       </c>
       <c r="T49">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="U49">
-        <v>0.7111111111111111</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V49">
         <v>5</v>
       </c>
       <c r="W49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 02</t>
+          <t>Methow River Fawn 08</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5196,7 +5196,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -5236,28 +5236,28 @@
         <v>1</v>
       </c>
       <c r="N50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q50">
         <v>1</v>
       </c>
       <c r="R50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S50">
         <v>5</v>
       </c>
       <c r="T50">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="U50">
-        <v>0.5333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V50">
         <v>5</v>
@@ -5267,24 +5267,24 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels</t>
+          <t>Stability,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 03</t>
+          <t>Methow River Fawn 09</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -5313,13 +5313,13 @@
         </is>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J51">
         <v>5</v>
@@ -5331,31 +5331,31 @@
         <v>1</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N51">
         <v>1</v>
       </c>
       <c r="O51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P51">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T51">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U51">
-        <v>0.4666666666666667</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V51">
         <v>5</v>
@@ -5365,24 +5365,24 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>Stability,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 04</t>
+          <t>Methow River Fawn 10</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5392,7 +5392,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -5411,13 +5411,13 @@
         </is>
       </c>
       <c r="G52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J52">
         <v>5</v>
@@ -5429,31 +5429,31 @@
         <v>1</v>
       </c>
       <c r="M52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N52">
         <v>3</v>
       </c>
       <c r="O52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T52">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="U52">
-        <v>0.6444444444444445</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V52">
         <v>5</v>
@@ -5463,34 +5463,34 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Methow River Fawn 11</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -5509,86 +5509,86 @@
         </is>
       </c>
       <c r="G53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J53">
         <v>5</v>
       </c>
       <c r="K53">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N53">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T53">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="U53">
-        <v>0.7555555555555555</v>
+        <v>0.4</v>
       </c>
       <c r="V53">
         <v>5</v>
       </c>
       <c r="W53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Methow River Rattlesnake 01</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -5622,16 +5622,16 @@
         <v>3</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M54">
         <v>3</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P54">
         <v>3</v>
@@ -5643,50 +5643,50 @@
         <v>2</v>
       </c>
       <c r="S54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T54">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="U54">
-        <v>0.4888888888888889</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V54">
         <v>5</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Riparian</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
-        </is>
-      </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Methow River Rattlesnake 02</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -5705,49 +5705,49 @@
         </is>
       </c>
       <c r="G55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H55">
         <v>3</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J55">
         <v>5</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O55">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S55">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T55">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U55">
-        <v>0.5111111111111111</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V55">
         <v>5</v>
@@ -5757,34 +5757,34 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Methow River Rattlesnake 03</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -5803,49 +5803,49 @@
         </is>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H56">
         <v>3</v>
       </c>
       <c r="I56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J56">
         <v>5</v>
       </c>
       <c r="K56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N56">
         <v>1</v>
       </c>
       <c r="O56">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q56">
         <v>3</v>
       </c>
       <c r="R56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T56">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U56">
-        <v>0.5111111111111111</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V56">
         <v>5</v>
@@ -5855,34 +5855,34 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Methow River Rattlesnake 04</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -5901,13 +5901,13 @@
         </is>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J57">
         <v>5</v>
@@ -5916,13 +5916,13 @@
         <v>1</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O57">
         <v>3</v>
@@ -5931,19 +5931,19 @@
         <v>3</v>
       </c>
       <c r="Q57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T57">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="U57">
-        <v>0.4222222222222222</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V57">
         <v>5</v>
@@ -5953,34 +5953,34 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Methow River Rattlesnake 05</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -5999,13 +5999,13 @@
         </is>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J58">
         <v>5</v>
@@ -6014,71 +6014,71 @@
         <v>1</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O58">
         <v>3</v>
       </c>
       <c r="P58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T58">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="U58">
-        <v>0.4</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V58">
         <v>5</v>
       </c>
       <c r="W58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 11</t>
+          <t>Methow River Rattlesnake 06</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -6097,76 +6097,76 @@
         </is>
       </c>
       <c r="G59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R59">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T59">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="U59">
-        <v>0.4444444444444444</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V59">
         <v>5</v>
       </c>
       <c r="W59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6198,73 +6198,73 @@
         <v>3</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L60">
         <v>3</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S60">
         <v>1</v>
       </c>
       <c r="T60">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="U60">
-        <v>0.3777777777777778</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V60">
         <v>5</v>
       </c>
       <c r="W60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -6302,40 +6302,40 @@
         <v>3</v>
       </c>
       <c r="J61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L61">
         <v>3</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N61">
         <v>1</v>
       </c>
       <c r="O61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q61">
         <v>1</v>
       </c>
       <c r="R61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S61">
         <v>1</v>
       </c>
       <c r="T61">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="U61">
-        <v>0.3777777777777778</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V61">
         <v>5</v>
@@ -6345,24 +6345,24 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -6400,16 +6400,16 @@
         <v>3</v>
       </c>
       <c r="J62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L62">
         <v>3</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -6418,22 +6418,22 @@
         <v>1</v>
       </c>
       <c r="P62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S62">
         <v>1</v>
       </c>
       <c r="T62">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="U62">
-        <v>0.3333333333333333</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V62">
         <v>5</v>
@@ -6443,24 +6443,24 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -6498,26 +6498,29 @@
         <v>3</v>
       </c>
       <c r="J63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K63">
         <v>3</v>
       </c>
       <c r="L63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M63">
         <v>3</v>
       </c>
       <c r="N63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P63">
         <v>3</v>
       </c>
+      <c r="Q63">
+        <v>3</v>
+      </c>
       <c r="R63">
         <v>3</v>
       </c>
@@ -6525,10 +6528,10 @@
         <v>1</v>
       </c>
       <c r="T63">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U63">
-        <v>0.6</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V63">
         <v>5</v>
@@ -6538,34 +6541,34 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Twisp River Lower 01</t>
+          <t>Nason Creek Lower 08</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -6584,49 +6587,46 @@
         </is>
       </c>
       <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64">
         <v>3</v>
       </c>
       <c r="I64">
+        <v>3</v>
+      </c>
+      <c r="J64">
+        <v>5</v>
+      </c>
+      <c r="K64">
+        <v>3</v>
+      </c>
+      <c r="L64">
+        <v>3</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>3</v>
+      </c>
+      <c r="R64">
         <v>2</v>
       </c>
-      <c r="J64">
-        <v>5</v>
-      </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="M64">
-        <v>1</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <v>3</v>
-      </c>
-      <c r="P64">
-        <v>1</v>
-      </c>
-      <c r="Q64">
-        <v>1</v>
-      </c>
-      <c r="R64">
-        <v>1</v>
-      </c>
       <c r="S64">
         <v>1</v>
       </c>
       <c r="T64">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="U64">
-        <v>0.3555555555555556</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V64">
         <v>5</v>
@@ -6636,12 +6636,12 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
@@ -6653,17 +6653,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -6694,16 +6694,16 @@
         <v>5</v>
       </c>
       <c r="K65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M65">
         <v>1</v>
       </c>
       <c r="N65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O65">
         <v>3</v>
@@ -6721,10 +6721,10 @@
         <v>1</v>
       </c>
       <c r="T65">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U65">
-        <v>0.4666666666666667</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V65">
         <v>5</v>
@@ -6734,12 +6734,12 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -6751,17 +6751,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -6795,34 +6795,34 @@
         <v>1</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M66">
         <v>1</v>
       </c>
       <c r="N66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q66">
         <v>1</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S66">
         <v>1</v>
       </c>
       <c r="T66">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U66">
-        <v>0.3777777777777778</v>
+        <v>0.4</v>
       </c>
       <c r="V66">
         <v>5</v>
@@ -6832,12 +6832,12 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -6849,17 +6849,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Nason Creek Lower 11</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -6878,37 +6878,37 @@
         </is>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H67">
         <v>3</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O67">
         <v>1</v>
       </c>
       <c r="P67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R67">
         <v>2</v>
@@ -6917,10 +6917,10 @@
         <v>1</v>
       </c>
       <c r="T67">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="U67">
-        <v>0.3777777777777778</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V67">
         <v>5</v>
@@ -6930,34 +6930,34 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -6976,40 +6976,40 @@
         </is>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H68">
         <v>3</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K68">
         <v>1</v>
       </c>
       <c r="L68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M68">
         <v>1</v>
       </c>
       <c r="N68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q68">
         <v>1</v>
       </c>
       <c r="R68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S68">
         <v>1</v>
@@ -7028,34 +7028,34 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -7074,22 +7074,22 @@
         </is>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J69">
         <v>3</v>
       </c>
       <c r="K69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M69">
         <v>1</v>
@@ -7113,10 +7113,10 @@
         <v>1</v>
       </c>
       <c r="T69">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U69">
-        <v>0.3333333333333333</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V69">
         <v>5</v>
@@ -7126,12 +7126,12 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
@@ -7143,17 +7143,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -7184,37 +7184,37 @@
         <v>3</v>
       </c>
       <c r="K70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S70">
         <v>1</v>
       </c>
       <c r="T70">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="U70">
-        <v>0.5555555555555556</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V70">
         <v>5</v>
@@ -7224,34 +7224,34 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -7279,13 +7279,13 @@
         <v>3</v>
       </c>
       <c r="J71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M71">
         <v>3</v>
@@ -7297,22 +7297,19 @@
         <v>3</v>
       </c>
       <c r="P71">
-        <v>1</v>
-      </c>
-      <c r="Q71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S71">
         <v>1</v>
       </c>
       <c r="T71">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="U71">
-        <v>0.5111111111111111</v>
+        <v>0.6</v>
       </c>
       <c r="V71">
         <v>5</v>
@@ -7322,24 +7319,24 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Twisp River Lower 01</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -7368,22 +7365,22 @@
         </is>
       </c>
       <c r="G72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K72">
         <v>1</v>
       </c>
       <c r="L72">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M72">
         <v>1</v>
@@ -7392,7 +7389,7 @@
         <v>1</v>
       </c>
       <c r="O72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P72">
         <v>1</v>
@@ -7407,10 +7404,10 @@
         <v>1</v>
       </c>
       <c r="T72">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="U72">
-        <v>0.4</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="V72">
         <v>5</v>
@@ -7420,24 +7417,24 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>CoarseSubstrate</t>
+          <t>Stability,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -7466,28 +7463,28 @@
         </is>
       </c>
       <c r="G73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H73">
         <v>3</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J73">
         <v>5</v>
       </c>
       <c r="K73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L73">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O73">
         <v>3</v>
@@ -7505,10 +7502,10 @@
         <v>1</v>
       </c>
       <c r="T73">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="U73">
-        <v>0.5333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V73">
         <v>5</v>
@@ -7518,24 +7515,24 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -7564,49 +7561,49 @@
         </is>
       </c>
       <c r="G74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H74">
         <v>3</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K74">
         <v>1</v>
       </c>
       <c r="L74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q74">
         <v>1</v>
       </c>
       <c r="R74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S74">
         <v>1</v>
       </c>
       <c r="T74">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="U74">
-        <v>0.4666666666666667</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V74">
         <v>5</v>
@@ -7616,24 +7613,24 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -7643,7 +7640,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -7662,76 +7659,76 @@
         </is>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H75">
         <v>3</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J75">
         <v>5</v>
       </c>
       <c r="K75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P75">
         <v>3</v>
       </c>
       <c r="Q75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S75">
         <v>1</v>
       </c>
       <c r="T75">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="U75">
-        <v>0.7333333333333333</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V75">
         <v>5</v>
       </c>
       <c r="W75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -7741,7 +7738,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -7760,76 +7757,76 @@
         </is>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H76">
         <v>3</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J76">
         <v>5</v>
       </c>
       <c r="K76">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L76">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O76">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P76">
         <v>3</v>
       </c>
       <c r="Q76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S76">
         <v>1</v>
       </c>
       <c r="T76">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="U76">
-        <v>0.7777777777777778</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V76">
         <v>5</v>
       </c>
       <c r="W76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -7839,7 +7836,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -7858,25 +7855,25 @@
         </is>
       </c>
       <c r="G77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J77">
         <v>3</v>
       </c>
       <c r="K77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -7885,22 +7882,22 @@
         <v>3</v>
       </c>
       <c r="P77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S77">
         <v>1</v>
       </c>
       <c r="T77">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="U77">
-        <v>0.5777777777777777</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V77">
         <v>5</v>
@@ -7910,24 +7907,24 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -7937,7 +7934,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -7956,31 +7953,31 @@
         </is>
       </c>
       <c r="G78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H78">
         <v>3</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J78">
         <v>3</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P78">
         <v>3</v>
@@ -7995,10 +7992,10 @@
         <v>1</v>
       </c>
       <c r="T78">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U78">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V78">
         <v>5</v>
@@ -8008,24 +8005,24 @@
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -8035,7 +8032,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -8054,49 +8051,49 @@
         </is>
       </c>
       <c r="G79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H79">
         <v>3</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K79">
         <v>1</v>
       </c>
       <c r="L79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O79">
         <v>3</v>
       </c>
       <c r="P79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S79">
         <v>1</v>
       </c>
       <c r="T79">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U79">
-        <v>0.5777777777777777</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V79">
         <v>5</v>
@@ -8106,24 +8103,24 @@
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>Twisp River Lower 09</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -8133,7 +8130,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -8152,76 +8149,76 @@
         </is>
       </c>
       <c r="G80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H80">
         <v>5</v>
       </c>
       <c r="I80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K80">
         <v>1</v>
       </c>
       <c r="L80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q80">
         <v>1</v>
       </c>
       <c r="R80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T80">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="U80">
-        <v>0.7777777777777778</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="V80">
         <v>5</v>
       </c>
       <c r="W80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -8231,7 +8228,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -8265,34 +8262,34 @@
         <v>1</v>
       </c>
       <c r="L81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M81">
         <v>3</v>
       </c>
       <c r="N81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T81">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="U81">
-        <v>0.6666666666666666</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V81">
         <v>5</v>
@@ -8302,24 +8299,24 @@
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -8329,7 +8326,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -8357,7 +8354,7 @@
         <v>3</v>
       </c>
       <c r="J82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -8369,28 +8366,28 @@
         <v>3</v>
       </c>
       <c r="N82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T82">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="U82">
-        <v>0.6666666666666666</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V82">
         <v>5</v>
@@ -8400,34 +8397,34 @@
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 02</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -8446,22 +8443,22 @@
         </is>
       </c>
       <c r="G83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J83">
         <v>5</v>
       </c>
       <c r="K83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M83">
         <v>3</v>
@@ -8470,25 +8467,25 @@
         <v>5</v>
       </c>
       <c r="O83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q83">
         <v>3</v>
       </c>
       <c r="R83">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T83">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U83">
-        <v>0.7555555555555555</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V83">
         <v>5</v>
@@ -8498,34 +8495,34 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 03</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -8544,19 +8541,19 @@
         </is>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H84">
         <v>3</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J84">
         <v>5</v>
       </c>
       <c r="K84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L84">
         <v>5</v>
@@ -8565,60 +8562,65 @@
         <v>3</v>
       </c>
       <c r="N84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q84">
         <v>3</v>
       </c>
       <c r="R84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T84">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="U84">
-        <v>0.6444444444444445</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V84">
         <v>5</v>
       </c>
       <c r="W84">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>Temperature-Rearing</t>
+        </is>
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 04</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -8637,49 +8639,49 @@
         </is>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H85">
         <v>3</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L85">
         <v>5</v>
       </c>
       <c r="M85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O85">
         <v>3</v>
       </c>
       <c r="P85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q85">
         <v>3</v>
       </c>
       <c r="R85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T85">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U85">
-        <v>0.6444444444444445</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V85">
         <v>5</v>
@@ -8687,31 +8689,36 @@
       <c r="W85">
         <v>1</v>
       </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+        </is>
+      </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 05</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -8730,13 +8737,13 @@
         </is>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -8748,7 +8755,7 @@
         <v>5</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -8757,22 +8764,22 @@
         <v>3</v>
       </c>
       <c r="P86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q86">
         <v>3</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T86">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="U86">
-        <v>0.4444444444444444</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V86">
         <v>5</v>
@@ -8782,34 +8789,34 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 06</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -8828,16 +8835,16 @@
         </is>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H87">
         <v>3</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K87">
         <v>1</v>
@@ -8846,7 +8853,7 @@
         <v>5</v>
       </c>
       <c r="M87">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -8855,22 +8862,22 @@
         <v>3</v>
       </c>
       <c r="P87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T87">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="U87">
-        <v>0.4888888888888889</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V87">
         <v>5</v>
@@ -8880,34 +8887,34 @@
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 07</t>
+          <t>Twisp River Middle 06</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -8926,13 +8933,13 @@
         </is>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J88">
         <v>5</v>
@@ -8944,68 +8951,68 @@
         <v>5</v>
       </c>
       <c r="M88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q88">
         <v>1</v>
       </c>
       <c r="R88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S88">
         <v>3</v>
       </c>
       <c r="T88">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="U88">
-        <v>0.4888888888888889</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V88">
         <v>5</v>
       </c>
       <c r="W88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 08</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -9042,7 +9049,7 @@
         <v>5</v>
       </c>
       <c r="M89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N89">
         <v>3</v>
@@ -9051,22 +9058,22 @@
         <v>1</v>
       </c>
       <c r="P89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q89">
         <v>3</v>
       </c>
       <c r="R89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T89">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="U89">
-        <v>0.4888888888888889</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V89">
         <v>5</v>
@@ -9076,34 +9083,34 @@
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 09</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -9122,49 +9129,49 @@
         </is>
       </c>
       <c r="G90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H90">
         <v>3</v>
       </c>
       <c r="I90">
+        <v>3</v>
+      </c>
+      <c r="J90">
+        <v>5</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>5</v>
+      </c>
+      <c r="M90">
+        <v>3</v>
+      </c>
+      <c r="N90">
+        <v>3</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90">
+        <v>5</v>
+      </c>
+      <c r="Q90">
+        <v>3</v>
+      </c>
+      <c r="R90">
         <v>4</v>
       </c>
-      <c r="J90">
-        <v>5</v>
-      </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
-      <c r="L90">
-        <v>5</v>
-      </c>
-      <c r="M90">
-        <v>1</v>
-      </c>
-      <c r="N90">
-        <v>1</v>
-      </c>
-      <c r="O90">
-        <v>1</v>
-      </c>
-      <c r="P90">
-        <v>3</v>
-      </c>
-      <c r="Q90">
-        <v>3</v>
-      </c>
-      <c r="R90">
-        <v>3</v>
-      </c>
       <c r="S90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T90">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="U90">
-        <v>0.4888888888888889</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V90">
         <v>5</v>
@@ -9174,24 +9181,24 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>Riparian</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 10</t>
+          <t>Wenatchee River Beaver 02</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -9223,46 +9230,46 @@
         <v>5</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I91">
+        <v>5</v>
+      </c>
+      <c r="J91">
+        <v>5</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>3</v>
+      </c>
+      <c r="N91">
+        <v>5</v>
+      </c>
+      <c r="O91">
+        <v>3</v>
+      </c>
+      <c r="P91">
+        <v>5</v>
+      </c>
+      <c r="Q91">
+        <v>3</v>
+      </c>
+      <c r="R91">
         <v>4</v>
       </c>
-      <c r="J91">
-        <v>3</v>
-      </c>
-      <c r="K91">
-        <v>3</v>
-      </c>
-      <c r="L91">
-        <v>5</v>
-      </c>
-      <c r="M91">
-        <v>3</v>
-      </c>
-      <c r="N91">
-        <v>3</v>
-      </c>
-      <c r="O91">
-        <v>3</v>
-      </c>
-      <c r="P91">
-        <v>3</v>
-      </c>
-      <c r="Q91">
-        <v>3</v>
-      </c>
-      <c r="R91">
-        <v>3</v>
-      </c>
       <c r="S91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T91">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U91">
-        <v>0.6222222222222222</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V91">
         <v>5</v>
@@ -9272,24 +9279,24 @@
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 11</t>
+          <t>Wenatchee River Beaver 03</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -9318,22 +9325,22 @@
         </is>
       </c>
       <c r="G92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J92">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M92">
         <v>3</v>
@@ -9345,16 +9352,16 @@
         <v>3</v>
       </c>
       <c r="P92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q92">
         <v>3</v>
       </c>
       <c r="R92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T92">
         <v>25</v>
@@ -9370,24 +9377,24 @@
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 12</t>
+          <t>Wenatchee River Beaver 04</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -9428,10 +9435,10 @@
         <v>5</v>
       </c>
       <c r="K93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M93">
         <v>3</v>
@@ -9443,22 +9450,22 @@
         <v>3</v>
       </c>
       <c r="P93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q93">
         <v>3</v>
       </c>
       <c r="R93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T93">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U93">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V93">
         <v>5</v>
@@ -9468,17 +9475,801 @@
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
         <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z93" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 05</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>3</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94">
+        <v>3</v>
+      </c>
+      <c r="P94">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>3</v>
+      </c>
+      <c r="R94">
+        <v>2</v>
+      </c>
+      <c r="S94">
+        <v>3</v>
+      </c>
+      <c r="T94">
+        <v>16</v>
+      </c>
+      <c r="U94">
+        <v>0.3555555555555556</v>
+      </c>
+      <c r="V94">
+        <v>5</v>
+      </c>
+      <c r="W94">
+        <v>1</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+        </is>
+      </c>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z94" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 06</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>3</v>
+      </c>
+      <c r="I95">
+        <v>2</v>
+      </c>
+      <c r="J95">
+        <v>5</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>3</v>
+      </c>
+      <c r="P95">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>1</v>
+      </c>
+      <c r="R95">
+        <v>1</v>
+      </c>
+      <c r="S95">
+        <v>3</v>
+      </c>
+      <c r="T95">
+        <v>18</v>
+      </c>
+      <c r="U95">
+        <v>0.4</v>
+      </c>
+      <c r="V95">
+        <v>5</v>
+      </c>
+      <c r="W95">
+        <v>1</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z95" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 07</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>3</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96">
+        <v>5</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>3</v>
+      </c>
+      <c r="P96">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>1</v>
+      </c>
+      <c r="R96">
+        <v>1</v>
+      </c>
+      <c r="S96">
+        <v>3</v>
+      </c>
+      <c r="T96">
+        <v>18</v>
+      </c>
+      <c r="U96">
+        <v>0.4</v>
+      </c>
+      <c r="V96">
+        <v>5</v>
+      </c>
+      <c r="W96">
+        <v>1</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z96" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 08</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G97">
+        <v>3</v>
+      </c>
+      <c r="H97">
+        <v>3</v>
+      </c>
+      <c r="I97">
+        <v>3</v>
+      </c>
+      <c r="J97">
+        <v>5</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>3</v>
+      </c>
+      <c r="O97">
+        <v>1</v>
+      </c>
+      <c r="P97">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>3</v>
+      </c>
+      <c r="R97">
+        <v>2</v>
+      </c>
+      <c r="S97">
+        <v>1</v>
+      </c>
+      <c r="T97">
+        <v>18</v>
+      </c>
+      <c r="U97">
+        <v>0.4</v>
+      </c>
+      <c r="V97">
+        <v>5</v>
+      </c>
+      <c r="W97">
+        <v>1</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z97" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 09</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G98">
+        <v>5</v>
+      </c>
+      <c r="H98">
+        <v>3</v>
+      </c>
+      <c r="I98">
+        <v>4</v>
+      </c>
+      <c r="J98">
+        <v>5</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="P98">
+        <v>3</v>
+      </c>
+      <c r="Q98">
+        <v>3</v>
+      </c>
+      <c r="R98">
+        <v>3</v>
+      </c>
+      <c r="S98">
+        <v>1</v>
+      </c>
+      <c r="T98">
+        <v>18</v>
+      </c>
+      <c r="U98">
+        <v>0.4</v>
+      </c>
+      <c r="V98">
+        <v>5</v>
+      </c>
+      <c r="W98">
+        <v>1</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>Riparian</t>
+        </is>
+      </c>
+      <c r="Z98" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 10</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G99">
+        <v>5</v>
+      </c>
+      <c r="H99">
+        <v>3</v>
+      </c>
+      <c r="I99">
+        <v>4</v>
+      </c>
+      <c r="J99">
+        <v>3</v>
+      </c>
+      <c r="K99">
+        <v>3</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>3</v>
+      </c>
+      <c r="N99">
+        <v>3</v>
+      </c>
+      <c r="O99">
+        <v>3</v>
+      </c>
+      <c r="P99">
+        <v>3</v>
+      </c>
+      <c r="Q99">
+        <v>3</v>
+      </c>
+      <c r="R99">
+        <v>3</v>
+      </c>
+      <c r="S99">
+        <v>1</v>
+      </c>
+      <c r="T99">
+        <v>24</v>
+      </c>
+      <c r="U99">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="V99">
+        <v>5</v>
+      </c>
+      <c r="W99">
+        <v>1</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y99" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z99" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 11</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G100">
+        <v>5</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100">
+        <v>3</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>3</v>
+      </c>
+      <c r="N100">
+        <v>3</v>
+      </c>
+      <c r="O100">
+        <v>3</v>
+      </c>
+      <c r="P100">
+        <v>3</v>
+      </c>
+      <c r="Q100">
+        <v>3</v>
+      </c>
+      <c r="R100">
+        <v>3</v>
+      </c>
+      <c r="S100">
+        <v>1</v>
+      </c>
+      <c r="T100">
+        <v>21</v>
+      </c>
+      <c r="U100">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="V100">
+        <v>5</v>
+      </c>
+      <c r="W100">
+        <v>1</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y100" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z100" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 12</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>3</v>
+      </c>
+      <c r="I101">
+        <v>2</v>
+      </c>
+      <c r="J101">
+        <v>5</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>3</v>
+      </c>
+      <c r="N101">
+        <v>3</v>
+      </c>
+      <c r="O101">
+        <v>3</v>
+      </c>
+      <c r="P101">
+        <v>3</v>
+      </c>
+      <c r="Q101">
+        <v>3</v>
+      </c>
+      <c r="R101">
+        <v>3</v>
+      </c>
+      <c r="S101">
+        <v>1</v>
+      </c>
+      <c r="T101">
+        <v>22</v>
+      </c>
+      <c r="U101">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="V101">
+        <v>5</v>
+      </c>
+      <c r="W101">
+        <v>1</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y101" t="inlineStr">
+        <is>
           <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
-      <c r="Z93" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+      <c r="Z101" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>

--- a/Output/Spring_Chinook_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Spring_Chinook_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z101"/>
+  <dimension ref="A1:Z93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,12 +435,12 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Riparian-CanopyCover_score</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Riparian-Disturbance_score</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Riparian-CanopyCover_score</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -548,10 +548,10 @@
         <v>5</v>
       </c>
       <c r="P2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R2">
         <v>4</v>
@@ -646,10 +646,10 @@
         <v>5</v>
       </c>
       <c r="P3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R3">
         <v>4</v>
@@ -744,10 +744,10 @@
         <v>5</v>
       </c>
       <c r="P4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R4">
         <v>4</v>
@@ -842,10 +842,10 @@
         <v>3</v>
       </c>
       <c r="P5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R5">
         <v>4</v>
@@ -934,16 +934,16 @@
         <v>5</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O6">
         <v>5</v>
       </c>
       <c r="P6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R6">
         <v>3</v>
@@ -952,20 +952,20 @@
         <v>1</v>
       </c>
       <c r="T6">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U6">
-        <v>0.6444444444444445</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V6">
         <v>5</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1038,10 +1038,10 @@
         <v>3</v>
       </c>
       <c r="P7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R7">
         <v>3</v>
@@ -1130,7 +1130,7 @@
         <v>3</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O8">
         <v>3</v>
@@ -1148,10 +1148,10 @@
         <v>5</v>
       </c>
       <c r="T8">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U8">
-        <v>0.5333333333333333</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V8">
         <v>5</v>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
         <v>3</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O9">
         <v>3</v>
@@ -1246,10 +1246,10 @@
         <v>5</v>
       </c>
       <c r="T9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U9">
-        <v>0.5333333333333333</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V9">
         <v>5</v>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
@@ -1335,19 +1335,19 @@
         <v>3</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S10">
         <v>5</v>
       </c>
       <c r="T10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U10">
-        <v>0.5555555555555556</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V10">
         <v>5</v>
@@ -1424,28 +1424,28 @@
         <v>5</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O11">
         <v>5</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S11">
         <v>1</v>
       </c>
       <c r="T11">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="U11">
-        <v>0.5777777777777777</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V11">
         <v>5</v>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1522,28 +1522,28 @@
         <v>5</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O12">
         <v>5</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S12">
         <v>1</v>
       </c>
       <c r="T12">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="U12">
-        <v>0.5777777777777777</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V12">
         <v>5</v>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1620,16 +1620,16 @@
         <v>3</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O13">
         <v>5</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R13">
         <v>2</v>
@@ -1638,10 +1638,10 @@
         <v>1</v>
       </c>
       <c r="T13">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="U13">
-        <v>0.5777777777777777</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V13">
         <v>5</v>
@@ -1651,12 +1651,12 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -1724,10 +1724,10 @@
         <v>5</v>
       </c>
       <c r="P14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R14">
         <v>2</v>
@@ -1822,10 +1822,10 @@
         <v>5</v>
       </c>
       <c r="P15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R15">
         <v>4</v>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="G16">
@@ -1920,10 +1920,10 @@
         <v>5</v>
       </c>
       <c r="P16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R16">
         <v>4</v>
@@ -2018,10 +2018,10 @@
         <v>5</v>
       </c>
       <c r="P17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R17">
         <v>2</v>
@@ -2116,10 +2116,10 @@
         <v>5</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R18">
         <v>4</v>
@@ -2214,10 +2214,10 @@
         <v>5</v>
       </c>
       <c r="P19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R19">
         <v>3</v>
@@ -2312,10 +2312,10 @@
         <v>5</v>
       </c>
       <c r="P20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R20">
         <v>3</v>
@@ -2410,22 +2410,22 @@
         <v>5</v>
       </c>
       <c r="P21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S21">
         <v>1</v>
       </c>
       <c r="T21">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U21">
-        <v>0.5555555555555556</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V21">
         <v>5</v>
@@ -2499,7 +2499,7 @@
         <v>3</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -2520,10 +2520,10 @@
         <v>5</v>
       </c>
       <c r="T22">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="U22">
-        <v>0.5777777777777777</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V22">
         <v>5</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
@@ -2895,10 +2895,10 @@
         <v>5</v>
       </c>
       <c r="P26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R26">
         <v>4</v>
@@ -2993,10 +2993,10 @@
         <v>5</v>
       </c>
       <c r="P27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R27">
         <v>3</v>
@@ -3091,10 +3091,10 @@
         <v>1</v>
       </c>
       <c r="P28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R28">
         <v>3</v>
@@ -3189,10 +3189,10 @@
         <v>3</v>
       </c>
       <c r="P29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R29">
         <v>4</v>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G31">
@@ -3379,28 +3379,28 @@
         <v>1</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O31">
         <v>5</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S31">
         <v>5</v>
       </c>
       <c r="T31">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="U31">
-        <v>0.5555555555555556</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V31">
         <v>5</v>
@@ -3410,12 +3410,12 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -3427,7 +3427,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Entiat River Lake 03</t>
+          <t>Entiat River Lake 04</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3468,7 +3468,7 @@
         <v>5</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L32">
         <v>3</v>
@@ -3477,28 +3477,28 @@
         <v>5</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S32">
         <v>5</v>
       </c>
       <c r="T32">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U32">
-        <v>0.7777777777777778</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V32">
         <v>5</v>
@@ -3508,24 +3508,24 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Entiat River Lake 04</t>
+          <t>Entiat River Potato 07</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3554,31 +3554,31 @@
         </is>
       </c>
       <c r="G33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J33">
         <v>5</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>3</v>
       </c>
       <c r="M33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P33">
         <v>5</v>
@@ -3590,40 +3590,35 @@
         <v>4</v>
       </c>
       <c r="S33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T33">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U33">
-        <v>0.6666666666666666</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V33">
         <v>5</v>
       </c>
       <c r="W33">
-        <v>1</v>
-      </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
-        </is>
+        <v>3</v>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Entiat River Lake 08</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3633,7 +3628,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3652,49 +3647,49 @@
         </is>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J34">
         <v>5</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T34">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U34">
-        <v>0.7777777777777778</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V34">
         <v>5</v>
@@ -3702,26 +3697,21 @@
       <c r="W34">
         <v>3</v>
       </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels</t>
-        </is>
-      </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Entiat River Lake 10</t>
+          <t>Entiat River Preston 01</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3731,7 +3721,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3750,28 +3740,28 @@
         </is>
       </c>
       <c r="G35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J35">
         <v>5</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O35">
         <v>3</v>
@@ -3780,46 +3770,41 @@
         <v>5</v>
       </c>
       <c r="Q35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T35">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="U35">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V35">
         <v>5</v>
       </c>
       <c r="W35">
-        <v>3</v>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels</t>
-        </is>
+        <v>1</v>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Entiat River Potato 05</t>
+          <t>Entiat River Preston 02</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3829,7 +3814,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3848,28 +3833,28 @@
         </is>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J36">
         <v>5</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O36">
         <v>5</v>
@@ -3887,10 +3872,10 @@
         <v>3</v>
       </c>
       <c r="T36">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U36">
-        <v>0.7777777777777778</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V36">
         <v>5</v>
@@ -3898,26 +3883,21 @@
       <c r="W36">
         <v>3</v>
       </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>Off-Channel-Side-Channels</t>
-        </is>
-      </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Entiat River Potato 07</t>
+          <t>Entiat River Preston 03</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3927,7 +3907,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3949,46 +3929,46 @@
         <v>3</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J37">
         <v>5</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37">
         <v>3</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P37">
         <v>3</v>
       </c>
       <c r="Q37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T37">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U37">
-        <v>0.6444444444444445</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V37">
         <v>5</v>
@@ -3998,24 +3978,24 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Entiat River Potato 08</t>
+          <t>Entiat River Preston 04</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4025,7 +4005,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4044,31 +4024,31 @@
         </is>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J38">
         <v>5</v>
       </c>
       <c r="K38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L38">
         <v>3</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P38">
         <v>3</v>
@@ -4080,7 +4060,7 @@
         <v>3</v>
       </c>
       <c r="S38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T38">
         <v>31</v>
@@ -4096,34 +4076,34 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Entiat River Preston 01</t>
+          <t>Methow River Fawn 01</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -4145,46 +4125,46 @@
         <v>3</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J39">
         <v>5</v>
       </c>
       <c r="K39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M39">
         <v>3</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q39">
         <v>3</v>
       </c>
       <c r="R39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T39">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="U39">
-        <v>0.6</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V39">
         <v>5</v>
@@ -4194,34 +4174,34 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Entiat River Preston 02</t>
+          <t>Methow River Fawn 02</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -4243,16 +4223,16 @@
         <v>3</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J40">
         <v>5</v>
       </c>
       <c r="K40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L40">
         <v>3</v>
@@ -4270,51 +4250,56 @@
         <v>3</v>
       </c>
       <c r="Q40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T40">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U40">
-        <v>0.7333333333333333</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V40">
         <v>5</v>
       </c>
       <c r="W40">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Temperature-Rearing</t>
+        </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Entiat River Preston 03</t>
+          <t>Methow River Fawn 03</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -4333,10 +4318,10 @@
         </is>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I41">
         <v>4</v>
@@ -4345,37 +4330,37 @@
         <v>5</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L41">
         <v>3</v>
       </c>
       <c r="M41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P41">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T41">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U41">
-        <v>0.6444444444444445</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V41">
         <v>5</v>
@@ -4385,34 +4370,34 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels</t>
+          <t>Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Entiat River Preston 04</t>
+          <t>Methow River Fawn 05</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -4431,49 +4416,49 @@
         </is>
       </c>
       <c r="G42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H42">
         <v>5</v>
       </c>
       <c r="I42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J42">
         <v>5</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R42">
         <v>3</v>
       </c>
       <c r="S42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T42">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U42">
-        <v>0.6444444444444445</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V42">
         <v>5</v>
@@ -4483,24 +4468,24 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Riparian</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Methow River Fawn 01</t>
+          <t>Methow River Fawn 06</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4529,49 +4514,49 @@
         </is>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J43">
         <v>5</v>
       </c>
       <c r="K43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L43">
         <v>1</v>
       </c>
       <c r="M43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N43">
         <v>1</v>
       </c>
       <c r="O43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R43">
         <v>2</v>
       </c>
       <c r="S43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T43">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="U43">
-        <v>0.6</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V43">
         <v>5</v>
@@ -4581,24 +4566,24 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Riparian</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Methow River Fawn 02</t>
+          <t>Methow River Fawn 07</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4627,49 +4612,49 @@
         </is>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J44">
         <v>5</v>
       </c>
       <c r="K44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L44">
         <v>3</v>
       </c>
       <c r="M44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R44">
         <v>2</v>
       </c>
       <c r="S44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T44">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="U44">
-        <v>0.6444444444444445</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V44">
         <v>5</v>
@@ -4679,24 +4664,24 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Methow River Fawn 03</t>
+          <t>Methow River Fawn 08</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4725,49 +4710,49 @@
         </is>
       </c>
       <c r="G45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H45">
         <v>3</v>
       </c>
       <c r="I45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J45">
         <v>5</v>
       </c>
       <c r="K45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M45">
         <v>1</v>
       </c>
       <c r="N45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R45">
         <v>2</v>
       </c>
       <c r="S45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T45">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="U45">
-        <v>0.6</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V45">
         <v>5</v>
@@ -4777,24 +4762,24 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Methow River Fawn 09</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4823,76 +4808,76 @@
         </is>
       </c>
       <c r="G46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J46">
         <v>5</v>
       </c>
       <c r="K46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N46">
         <v>1</v>
       </c>
       <c r="O46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T46">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="U46">
-        <v>0.7111111111111111</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V46">
         <v>5</v>
       </c>
       <c r="W46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow</t>
+          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Methow River Fawn 05</t>
+          <t>Methow River Fawn 10</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4917,53 +4902,53 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J47">
         <v>5</v>
       </c>
       <c r="K47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L47">
         <v>1</v>
       </c>
       <c r="M47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N47">
         <v>3</v>
       </c>
       <c r="O47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q47">
         <v>1</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T47">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="U47">
-        <v>0.5555555555555556</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V47">
         <v>5</v>
@@ -4973,24 +4958,24 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Methow River Fawn 06</t>
+          <t>Methow River Fawn 11</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5040,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O48">
         <v>1</v>
@@ -5058,10 +5043,10 @@
         <v>5</v>
       </c>
       <c r="T48">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="U48">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V48">
         <v>5</v>
@@ -5071,12 +5056,12 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>Stability</t>
+          <t>Stability,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
@@ -5088,7 +5073,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Methow River Fawn 07</t>
+          <t>Methow River Rattlesnake 01</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5098,7 +5083,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -5117,37 +5102,37 @@
         </is>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H49">
         <v>3</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J49">
         <v>5</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R49">
         <v>2</v>
@@ -5156,37 +5141,37 @@
         <v>5</v>
       </c>
       <c r="T49">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U49">
-        <v>0.5111111111111111</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V49">
         <v>5</v>
       </c>
       <c r="W49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Methow River Fawn 08</t>
+          <t>Methow River Rattlesnake 02</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5196,7 +5181,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -5236,10 +5221,10 @@
         <v>1</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P50">
         <v>3</v>
@@ -5254,10 +5239,10 @@
         <v>5</v>
       </c>
       <c r="T50">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="U50">
-        <v>0.4666666666666667</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V50">
         <v>5</v>
@@ -5267,24 +5252,24 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Methow River Fawn 09</t>
+          <t>Methow River Rattlesnake 03</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5294,7 +5279,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -5313,13 +5298,13 @@
         </is>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J51">
         <v>5</v>
@@ -5331,25 +5316,25 @@
         <v>1</v>
       </c>
       <c r="M51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q51">
         <v>1</v>
       </c>
       <c r="R51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T51">
         <v>23</v>
@@ -5365,24 +5350,24 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Methow River Fawn 10</t>
+          <t>Methow River Rattlesnake 04</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5392,7 +5377,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -5411,13 +5396,13 @@
         </is>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J52">
         <v>5</v>
@@ -5429,31 +5414,31 @@
         <v>1</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N52">
         <v>3</v>
       </c>
       <c r="O52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T52">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="U52">
-        <v>0.4444444444444444</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V52">
         <v>5</v>
@@ -5463,34 +5448,34 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Methow River Fawn 11</t>
+          <t>Nason Creek Lower 04</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -5509,49 +5494,49 @@
         </is>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H53">
         <v>3</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J53">
         <v>5</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O53">
         <v>1</v>
       </c>
       <c r="P53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S53">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T53">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="U53">
-        <v>0.4</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V53">
         <v>5</v>
@@ -5561,34 +5546,34 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>Stability</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 01</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -5622,71 +5607,71 @@
         <v>3</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M54">
         <v>3</v>
       </c>
       <c r="N54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P54">
         <v>3</v>
       </c>
       <c r="Q54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T54">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="U54">
-        <v>0.7111111111111111</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V54">
         <v>5</v>
       </c>
       <c r="W54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 02</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -5705,49 +5690,49 @@
         </is>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H55">
         <v>3</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J55">
         <v>5</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N55">
         <v>3</v>
       </c>
       <c r="O55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T55">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U55">
-        <v>0.5333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V55">
         <v>5</v>
@@ -5757,34 +5742,34 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 03</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -5803,49 +5788,49 @@
         </is>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H56">
         <v>3</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J56">
         <v>5</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q56">
         <v>3</v>
       </c>
       <c r="R56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T56">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="U56">
-        <v>0.4666666666666667</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V56">
         <v>5</v>
@@ -5855,34 +5840,34 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>Stability,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 04</t>
+          <t>Nason Creek Lower 08</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -5901,49 +5886,46 @@
         </is>
       </c>
       <c r="G57">
-        <v>5</v>
-      </c>
-      <c r="H57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J57">
         <v>5</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P57">
         <v>3</v>
       </c>
       <c r="Q57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T57">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="U57">
-        <v>0.6444444444444445</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V57">
         <v>5</v>
@@ -5953,34 +5935,34 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow</t>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 05</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -5999,13 +5981,13 @@
         </is>
       </c>
       <c r="G58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J58">
         <v>5</v>
@@ -6014,71 +5996,71 @@
         <v>1</v>
       </c>
       <c r="L58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O58">
         <v>3</v>
       </c>
       <c r="P58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q58">
         <v>3</v>
       </c>
       <c r="R58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T58">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="U58">
-        <v>0.7777777777777778</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V58">
         <v>5</v>
       </c>
       <c r="W58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 06</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -6097,76 +6079,76 @@
         </is>
       </c>
       <c r="G59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I59">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J59">
         <v>5</v>
       </c>
       <c r="K59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M59">
         <v>1</v>
       </c>
       <c r="N59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R59">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T59">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="U59">
-        <v>0.7777777777777778</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V59">
         <v>5</v>
       </c>
       <c r="W59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Nason Creek Lower 11</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6198,16 +6180,16 @@
         <v>3</v>
       </c>
       <c r="H60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L60">
         <v>3</v>
@@ -6216,55 +6198,55 @@
         <v>3</v>
       </c>
       <c r="N60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P60">
         <v>3</v>
       </c>
       <c r="Q60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S60">
         <v>1</v>
       </c>
       <c r="T60">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="U60">
-        <v>0.7555555555555555</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V60">
         <v>5</v>
       </c>
       <c r="W60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -6302,10 +6284,10 @@
         <v>3</v>
       </c>
       <c r="J61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L61">
         <v>3</v>
@@ -6314,28 +6296,28 @@
         <v>3</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q61">
         <v>1</v>
       </c>
       <c r="R61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S61">
         <v>1</v>
       </c>
       <c r="T61">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U61">
-        <v>0.4888888888888889</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V61">
         <v>5</v>
@@ -6345,24 +6327,24 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -6400,10 +6382,10 @@
         <v>3</v>
       </c>
       <c r="J62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L62">
         <v>3</v>
@@ -6412,28 +6394,28 @@
         <v>3</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S62">
         <v>1</v>
       </c>
       <c r="T62">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U62">
-        <v>0.5111111111111111</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V62">
         <v>5</v>
@@ -6443,24 +6425,24 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -6498,10 +6480,10 @@
         <v>3</v>
       </c>
       <c r="J63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L63">
         <v>3</v>
@@ -6510,28 +6492,28 @@
         <v>3</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S63">
         <v>1</v>
       </c>
       <c r="T63">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U63">
-        <v>0.5111111111111111</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V63">
         <v>5</v>
@@ -6541,24 +6523,24 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 08</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -6589,44 +6571,44 @@
       <c r="G64">
         <v>3</v>
       </c>
+      <c r="H64">
+        <v>3</v>
+      </c>
       <c r="I64">
         <v>3</v>
       </c>
       <c r="J64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K64">
         <v>3</v>
       </c>
       <c r="L64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O64">
-        <v>1</v>
-      </c>
-      <c r="P64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q64">
         <v>3</v>
       </c>
       <c r="R64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S64">
         <v>1</v>
       </c>
       <c r="T64">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="U64">
-        <v>0.4444444444444444</v>
+        <v>0.6</v>
       </c>
       <c r="V64">
         <v>5</v>
@@ -6636,34 +6618,34 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Twisp River Lower 01</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -6697,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="L65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M65">
         <v>1</v>
@@ -6709,22 +6691,22 @@
         <v>3</v>
       </c>
       <c r="P65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q65">
         <v>1</v>
       </c>
       <c r="R65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S65">
         <v>1</v>
       </c>
       <c r="T65">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="U65">
-        <v>0.4222222222222222</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="V65">
         <v>5</v>
@@ -6734,12 +6716,12 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -6751,17 +6733,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -6792,16 +6774,16 @@
         <v>5</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M66">
         <v>1</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O66">
         <v>3</v>
@@ -6810,19 +6792,19 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S66">
         <v>1</v>
       </c>
       <c r="T66">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="U66">
-        <v>0.4</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V66">
         <v>5</v>
@@ -6832,12 +6814,12 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -6849,17 +6831,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 11</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -6878,28 +6860,28 @@
         </is>
       </c>
       <c r="G67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H67">
         <v>3</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -6917,10 +6899,10 @@
         <v>1</v>
       </c>
       <c r="T67">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="U67">
-        <v>0.4444444444444444</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V67">
         <v>5</v>
@@ -6930,34 +6912,34 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -6976,40 +6958,40 @@
         </is>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H68">
         <v>3</v>
       </c>
       <c r="I68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K68">
         <v>1</v>
       </c>
       <c r="L68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M68">
         <v>1</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P68">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S68">
         <v>1</v>
@@ -7028,34 +7010,34 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -7074,40 +7056,40 @@
         </is>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H69">
         <v>3</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K69">
         <v>1</v>
       </c>
       <c r="L69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M69">
         <v>1</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P69">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S69">
         <v>1</v>
@@ -7126,34 +7108,34 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -7172,22 +7154,22 @@
         </is>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J70">
         <v>3</v>
       </c>
       <c r="K70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M70">
         <v>1</v>
@@ -7196,7 +7178,7 @@
         <v>1</v>
       </c>
       <c r="O70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P70">
         <v>1</v>
@@ -7224,12 +7206,12 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow</t>
+          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
@@ -7241,17 +7223,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -7285,7 +7267,7 @@
         <v>3</v>
       </c>
       <c r="L71">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M71">
         <v>3</v>
@@ -7294,11 +7276,14 @@
         <v>3</v>
       </c>
       <c r="O71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P71">
         <v>3</v>
       </c>
+      <c r="Q71">
+        <v>3</v>
+      </c>
       <c r="R71">
         <v>3</v>
       </c>
@@ -7306,10 +7291,10 @@
         <v>1</v>
       </c>
       <c r="T71">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="U71">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V71">
         <v>5</v>
@@ -7319,24 +7304,24 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Twisp River Lower 01</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -7365,13 +7350,13 @@
         </is>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H72">
         <v>3</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J72">
         <v>5</v>
@@ -7380,13 +7365,13 @@
         <v>1</v>
       </c>
       <c r="L72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O72">
         <v>3</v>
@@ -7404,10 +7389,10 @@
         <v>1</v>
       </c>
       <c r="T72">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="U72">
-        <v>0.3555555555555556</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V72">
         <v>5</v>
@@ -7417,12 +7402,12 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
@@ -7434,7 +7419,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Twisp River Lower 09</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -7463,49 +7448,49 @@
         </is>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q73">
         <v>1</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S73">
         <v>1</v>
       </c>
       <c r="T73">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U73">
-        <v>0.4666666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V73">
         <v>5</v>
@@ -7515,24 +7500,24 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -7561,13 +7546,13 @@
         </is>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H74">
         <v>3</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -7576,22 +7561,22 @@
         <v>1</v>
       </c>
       <c r="L74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N74">
         <v>3</v>
       </c>
       <c r="O74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R74">
         <v>2</v>
@@ -7600,10 +7585,10 @@
         <v>1</v>
       </c>
       <c r="T74">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="U74">
-        <v>0.3777777777777778</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V74">
         <v>5</v>
@@ -7613,12 +7598,12 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
@@ -7630,7 +7615,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -7659,49 +7644,49 @@
         </is>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H75">
         <v>3</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K75">
         <v>1</v>
       </c>
       <c r="L75">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N75">
         <v>3</v>
       </c>
       <c r="O75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q75">
         <v>1</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S75">
         <v>1</v>
       </c>
       <c r="T75">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="U75">
-        <v>0.3777777777777778</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V75">
         <v>5</v>
@@ -7711,24 +7696,24 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -7738,7 +7723,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -7757,76 +7742,76 @@
         </is>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H76">
         <v>3</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J76">
         <v>5</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P76">
         <v>3</v>
       </c>
       <c r="Q76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S76">
         <v>1</v>
       </c>
       <c r="T76">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="U76">
-        <v>0.3777777777777778</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V76">
         <v>5</v>
       </c>
       <c r="W76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -7836,7 +7821,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -7855,76 +7840,76 @@
         </is>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S77">
         <v>1</v>
       </c>
       <c r="T77">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="U77">
-        <v>0.3333333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V77">
         <v>5</v>
       </c>
       <c r="W77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -7934,7 +7919,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -7953,31 +7938,31 @@
         </is>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H78">
         <v>3</v>
       </c>
       <c r="I78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J78">
         <v>3</v>
       </c>
       <c r="K78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N78">
         <v>3</v>
       </c>
       <c r="O78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P78">
         <v>3</v>
@@ -7992,10 +7977,10 @@
         <v>1</v>
       </c>
       <c r="T78">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="U78">
-        <v>0.5555555555555556</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V78">
         <v>5</v>
@@ -8005,24 +7990,24 @@
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -8032,7 +8017,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -8051,25 +8036,25 @@
         </is>
       </c>
       <c r="G79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H79">
         <v>3</v>
       </c>
       <c r="I79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K79">
         <v>1</v>
       </c>
       <c r="L79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N79">
         <v>3</v>
@@ -8078,22 +8063,22 @@
         <v>3</v>
       </c>
       <c r="P79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S79">
         <v>1</v>
       </c>
       <c r="T79">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="U79">
-        <v>0.5111111111111111</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V79">
         <v>5</v>
@@ -8103,24 +8088,24 @@
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -8130,7 +8115,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -8149,10 +8134,10 @@
         </is>
       </c>
       <c r="G80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I80">
         <v>4</v>
@@ -8164,34 +8149,34 @@
         <v>1</v>
       </c>
       <c r="L80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M80">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S80">
         <v>1</v>
       </c>
       <c r="T80">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="U80">
-        <v>0.3555555555555556</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V80">
         <v>5</v>
@@ -8201,24 +8186,24 @@
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow</t>
+          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -8228,7 +8213,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -8262,34 +8247,34 @@
         <v>1</v>
       </c>
       <c r="L81">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M81">
         <v>3</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P81">
         <v>3</v>
       </c>
       <c r="Q81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T81">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="U81">
-        <v>0.4888888888888889</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V81">
         <v>5</v>
@@ -8299,24 +8284,24 @@
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -8326,7 +8311,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -8354,7 +8339,7 @@
         <v>3</v>
       </c>
       <c r="J82">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -8366,28 +8351,28 @@
         <v>3</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T82">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="U82">
-        <v>0.4666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V82">
         <v>5</v>
@@ -8397,34 +8382,34 @@
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Wenatchee River Beaver 02</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -8443,49 +8428,49 @@
         </is>
       </c>
       <c r="G83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J83">
         <v>5</v>
       </c>
       <c r="K83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N83">
         <v>5</v>
       </c>
       <c r="O83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P83">
         <v>3</v>
       </c>
       <c r="Q83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R83">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T83">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U83">
-        <v>0.7333333333333333</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V83">
         <v>5</v>
@@ -8495,34 +8480,34 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Wenatchee River Beaver 03</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -8541,86 +8526,86 @@
         </is>
       </c>
       <c r="G84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H84">
         <v>3</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J84">
         <v>5</v>
       </c>
       <c r="K84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M84">
         <v>3</v>
       </c>
       <c r="N84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P84">
         <v>3</v>
       </c>
       <c r="Q84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T84">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="U84">
-        <v>0.7777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V84">
         <v>5</v>
       </c>
       <c r="W84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Wenatchee River Beaver 04</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -8639,28 +8624,28 @@
         </is>
       </c>
       <c r="G85">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H85">
         <v>3</v>
       </c>
       <c r="I85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L85">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O85">
         <v>3</v>
@@ -8669,19 +8654,19 @@
         <v>3</v>
       </c>
       <c r="Q85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T85">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U85">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V85">
         <v>5</v>
@@ -8691,34 +8676,34 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Wenatchee River Beaver 05</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -8737,13 +8722,13 @@
         </is>
       </c>
       <c r="G86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -8752,10 +8737,10 @@
         <v>1</v>
       </c>
       <c r="L86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -8773,13 +8758,13 @@
         <v>3</v>
       </c>
       <c r="S86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T86">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="U86">
-        <v>0.5777777777777777</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V86">
         <v>5</v>
@@ -8789,34 +8774,34 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Wenatchee River Beaver 06</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -8835,25 +8820,25 @@
         </is>
       </c>
       <c r="G87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H87">
         <v>3</v>
       </c>
       <c r="I87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K87">
         <v>1</v>
       </c>
       <c r="L87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -8862,22 +8847,22 @@
         <v>3</v>
       </c>
       <c r="P87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T87">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="U87">
-        <v>0.5777777777777777</v>
+        <v>0.4</v>
       </c>
       <c r="V87">
         <v>5</v>
@@ -8887,34 +8872,34 @@
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>Wenatchee River Beaver 07</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -8933,13 +8918,13 @@
         </is>
       </c>
       <c r="G88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J88">
         <v>5</v>
@@ -8948,71 +8933,71 @@
         <v>1</v>
       </c>
       <c r="L88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O88">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q88">
         <v>1</v>
       </c>
       <c r="R88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S88">
         <v>3</v>
       </c>
       <c r="T88">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="U88">
-        <v>0.7777777777777778</v>
+        <v>0.4</v>
       </c>
       <c r="V88">
         <v>5</v>
       </c>
       <c r="W88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Wenatchee River Beaver 08</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -9046,10 +9031,10 @@
         <v>1</v>
       </c>
       <c r="L89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N89">
         <v>3</v>
@@ -9058,22 +9043,22 @@
         <v>1</v>
       </c>
       <c r="P89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T89">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="U89">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="V89">
         <v>5</v>
@@ -9083,34 +9068,34 @@
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Wenatchee River Beaver 09</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -9129,13 +9114,13 @@
         </is>
       </c>
       <c r="G90">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H90">
         <v>3</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -9144,34 +9129,34 @@
         <v>1</v>
       </c>
       <c r="L90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O90">
         <v>1</v>
       </c>
       <c r="P90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q90">
         <v>3</v>
       </c>
       <c r="R90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T90">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="U90">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="V90">
         <v>5</v>
@@ -9181,24 +9166,24 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Riparian</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 02</t>
+          <t>Wenatchee River Beaver 10</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -9230,16 +9215,16 @@
         <v>5</v>
       </c>
       <c r="H91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L91">
         <v>1</v>
@@ -9248,28 +9233,28 @@
         <v>3</v>
       </c>
       <c r="N91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O91">
         <v>3</v>
       </c>
       <c r="P91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q91">
         <v>3</v>
       </c>
       <c r="R91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T91">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="U91">
-        <v>0.6666666666666666</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V91">
         <v>5</v>
@@ -9279,24 +9264,24 @@
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 03</t>
+          <t>Wenatchee River Beaver 11</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -9325,19 +9310,19 @@
         </is>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J92">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L92">
         <v>1</v>
@@ -9352,22 +9337,22 @@
         <v>3</v>
       </c>
       <c r="P92">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q92">
         <v>3</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T92">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="U92">
-        <v>0.5555555555555556</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V92">
         <v>5</v>
@@ -9377,24 +9362,24 @@
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 04</t>
+          <t>Wenatchee River Beaver 12</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -9435,7 +9420,7 @@
         <v>5</v>
       </c>
       <c r="K93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L93">
         <v>1</v>
@@ -9450,22 +9435,22 @@
         <v>3</v>
       </c>
       <c r="P93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q93">
         <v>3</v>
       </c>
       <c r="R93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T93">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="U93">
-        <v>0.5555555555555556</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V93">
         <v>5</v>
@@ -9475,799 +9460,15 @@
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 05</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94">
-        <v>1</v>
-      </c>
-      <c r="I94">
-        <v>1</v>
-      </c>
-      <c r="J94">
-        <v>3</v>
-      </c>
-      <c r="K94">
-        <v>1</v>
-      </c>
-      <c r="L94">
-        <v>1</v>
-      </c>
-      <c r="M94">
-        <v>1</v>
-      </c>
-      <c r="N94">
-        <v>1</v>
-      </c>
-      <c r="O94">
-        <v>3</v>
-      </c>
-      <c r="P94">
-        <v>1</v>
-      </c>
-      <c r="Q94">
-        <v>3</v>
-      </c>
-      <c r="R94">
-        <v>2</v>
-      </c>
-      <c r="S94">
-        <v>3</v>
-      </c>
-      <c r="T94">
-        <v>16</v>
-      </c>
-      <c r="U94">
-        <v>0.3555555555555556</v>
-      </c>
-      <c r="V94">
-        <v>5</v>
-      </c>
-      <c r="W94">
-        <v>1</v>
-      </c>
-      <c r="X94" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
-        </is>
-      </c>
-      <c r="Y94" t="inlineStr">
-        <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Z94" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 06</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-      <c r="H95">
-        <v>3</v>
-      </c>
-      <c r="I95">
-        <v>2</v>
-      </c>
-      <c r="J95">
-        <v>5</v>
-      </c>
-      <c r="K95">
-        <v>1</v>
-      </c>
-      <c r="L95">
-        <v>1</v>
-      </c>
-      <c r="M95">
-        <v>1</v>
-      </c>
-      <c r="N95">
-        <v>1</v>
-      </c>
-      <c r="O95">
-        <v>3</v>
-      </c>
-      <c r="P95">
-        <v>1</v>
-      </c>
-      <c r="Q95">
-        <v>1</v>
-      </c>
-      <c r="R95">
-        <v>1</v>
-      </c>
-      <c r="S95">
-        <v>3</v>
-      </c>
-      <c r="T95">
-        <v>18</v>
-      </c>
-      <c r="U95">
-        <v>0.4</v>
-      </c>
-      <c r="V95">
-        <v>5</v>
-      </c>
-      <c r="W95">
-        <v>1</v>
-      </c>
-      <c r="X95" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
-        </is>
-      </c>
-      <c r="Y95" t="inlineStr">
-        <is>
-          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Z95" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 07</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
-      <c r="H96">
-        <v>3</v>
-      </c>
-      <c r="I96">
-        <v>2</v>
-      </c>
-      <c r="J96">
-        <v>5</v>
-      </c>
-      <c r="K96">
-        <v>1</v>
-      </c>
-      <c r="L96">
-        <v>1</v>
-      </c>
-      <c r="M96">
-        <v>1</v>
-      </c>
-      <c r="N96">
-        <v>1</v>
-      </c>
-      <c r="O96">
-        <v>3</v>
-      </c>
-      <c r="P96">
-        <v>1</v>
-      </c>
-      <c r="Q96">
-        <v>1</v>
-      </c>
-      <c r="R96">
-        <v>1</v>
-      </c>
-      <c r="S96">
-        <v>3</v>
-      </c>
-      <c r="T96">
-        <v>18</v>
-      </c>
-      <c r="U96">
-        <v>0.4</v>
-      </c>
-      <c r="V96">
-        <v>5</v>
-      </c>
-      <c r="W96">
-        <v>1</v>
-      </c>
-      <c r="X96" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
-        </is>
-      </c>
-      <c r="Y96" t="inlineStr">
-        <is>
-          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Z96" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 08</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G97">
-        <v>3</v>
-      </c>
-      <c r="H97">
-        <v>3</v>
-      </c>
-      <c r="I97">
-        <v>3</v>
-      </c>
-      <c r="J97">
-        <v>5</v>
-      </c>
-      <c r="K97">
-        <v>1</v>
-      </c>
-      <c r="L97">
-        <v>1</v>
-      </c>
-      <c r="M97">
-        <v>1</v>
-      </c>
-      <c r="N97">
-        <v>3</v>
-      </c>
-      <c r="O97">
-        <v>1</v>
-      </c>
-      <c r="P97">
-        <v>1</v>
-      </c>
-      <c r="Q97">
-        <v>3</v>
-      </c>
-      <c r="R97">
-        <v>2</v>
-      </c>
-      <c r="S97">
-        <v>1</v>
-      </c>
-      <c r="T97">
-        <v>18</v>
-      </c>
-      <c r="U97">
-        <v>0.4</v>
-      </c>
-      <c r="V97">
-        <v>5</v>
-      </c>
-      <c r="W97">
-        <v>1</v>
-      </c>
-      <c r="X97" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y97" t="inlineStr">
-        <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
-        </is>
-      </c>
-      <c r="Z97" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 09</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G98">
-        <v>5</v>
-      </c>
-      <c r="H98">
-        <v>3</v>
-      </c>
-      <c r="I98">
-        <v>4</v>
-      </c>
-      <c r="J98">
-        <v>5</v>
-      </c>
-      <c r="K98">
-        <v>1</v>
-      </c>
-      <c r="L98">
-        <v>1</v>
-      </c>
-      <c r="M98">
-        <v>1</v>
-      </c>
-      <c r="N98">
-        <v>1</v>
-      </c>
-      <c r="O98">
-        <v>1</v>
-      </c>
-      <c r="P98">
-        <v>3</v>
-      </c>
-      <c r="Q98">
-        <v>3</v>
-      </c>
-      <c r="R98">
-        <v>3</v>
-      </c>
-      <c r="S98">
-        <v>1</v>
-      </c>
-      <c r="T98">
-        <v>18</v>
-      </c>
-      <c r="U98">
-        <v>0.4</v>
-      </c>
-      <c r="V98">
-        <v>5</v>
-      </c>
-      <c r="W98">
-        <v>1</v>
-      </c>
-      <c r="X98" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y98" t="inlineStr">
-        <is>
-          <t>Riparian</t>
-        </is>
-      </c>
-      <c r="Z98" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 10</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G99">
-        <v>5</v>
-      </c>
-      <c r="H99">
-        <v>3</v>
-      </c>
-      <c r="I99">
-        <v>4</v>
-      </c>
-      <c r="J99">
-        <v>3</v>
-      </c>
-      <c r="K99">
-        <v>3</v>
-      </c>
-      <c r="L99">
-        <v>1</v>
-      </c>
-      <c r="M99">
-        <v>3</v>
-      </c>
-      <c r="N99">
-        <v>3</v>
-      </c>
-      <c r="O99">
-        <v>3</v>
-      </c>
-      <c r="P99">
-        <v>3</v>
-      </c>
-      <c r="Q99">
-        <v>3</v>
-      </c>
-      <c r="R99">
-        <v>3</v>
-      </c>
-      <c r="S99">
-        <v>1</v>
-      </c>
-      <c r="T99">
-        <v>24</v>
-      </c>
-      <c r="U99">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="V99">
-        <v>5</v>
-      </c>
-      <c r="W99">
-        <v>1</v>
-      </c>
-      <c r="X99" t="inlineStr">
-        <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y99" t="inlineStr">
-        <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z99" t="inlineStr">
-        <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 11</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G100">
-        <v>5</v>
-      </c>
-      <c r="H100">
-        <v>1</v>
-      </c>
-      <c r="I100">
-        <v>3</v>
-      </c>
-      <c r="J100">
-        <v>3</v>
-      </c>
-      <c r="K100">
-        <v>1</v>
-      </c>
-      <c r="L100">
-        <v>1</v>
-      </c>
-      <c r="M100">
-        <v>3</v>
-      </c>
-      <c r="N100">
-        <v>3</v>
-      </c>
-      <c r="O100">
-        <v>3</v>
-      </c>
-      <c r="P100">
-        <v>3</v>
-      </c>
-      <c r="Q100">
-        <v>3</v>
-      </c>
-      <c r="R100">
-        <v>3</v>
-      </c>
-      <c r="S100">
-        <v>1</v>
-      </c>
-      <c r="T100">
-        <v>21</v>
-      </c>
-      <c r="U100">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="V100">
-        <v>5</v>
-      </c>
-      <c r="W100">
-        <v>1</v>
-      </c>
-      <c r="X100" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y100" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z100" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 12</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G101">
-        <v>1</v>
-      </c>
-      <c r="H101">
-        <v>3</v>
-      </c>
-      <c r="I101">
-        <v>2</v>
-      </c>
-      <c r="J101">
-        <v>5</v>
-      </c>
-      <c r="K101">
-        <v>1</v>
-      </c>
-      <c r="L101">
-        <v>1</v>
-      </c>
-      <c r="M101">
-        <v>3</v>
-      </c>
-      <c r="N101">
-        <v>3</v>
-      </c>
-      <c r="O101">
-        <v>3</v>
-      </c>
-      <c r="P101">
-        <v>3</v>
-      </c>
-      <c r="Q101">
-        <v>3</v>
-      </c>
-      <c r="R101">
-        <v>3</v>
-      </c>
-      <c r="S101">
-        <v>1</v>
-      </c>
-      <c r="T101">
-        <v>22</v>
-      </c>
-      <c r="U101">
-        <v>0.4888888888888889</v>
-      </c>
-      <c r="V101">
-        <v>5</v>
-      </c>
-      <c r="W101">
-        <v>1</v>
-      </c>
-      <c r="X101" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y101" t="inlineStr">
-        <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z101" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>

--- a/Output/Spring_Chinook_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Spring_Chinook_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z93"/>
+  <dimension ref="A1:Z94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1332,22 +1332,22 @@
         <v>3</v>
       </c>
       <c r="P10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <v>3</v>
       </c>
       <c r="R10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S10">
         <v>5</v>
       </c>
       <c r="T10">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U10">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V10">
         <v>5</v>
@@ -1433,19 +1433,19 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S11">
         <v>1</v>
       </c>
       <c r="T11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U11">
-        <v>0.6888888888888889</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V11">
         <v>5</v>
@@ -1531,19 +1531,19 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S12">
         <v>1</v>
       </c>
       <c r="T12">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U12">
-        <v>0.6888888888888889</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V12">
         <v>5</v>
@@ -2413,19 +2413,19 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S21">
         <v>1</v>
       </c>
       <c r="T21">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U21">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V21">
         <v>5</v>
@@ -3385,22 +3385,22 @@
         <v>5</v>
       </c>
       <c r="P31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q31">
         <v>1</v>
       </c>
       <c r="R31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S31">
         <v>5</v>
       </c>
       <c r="T31">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U31">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="V31">
         <v>5</v>
@@ -3483,22 +3483,22 @@
         <v>1</v>
       </c>
       <c r="P32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q32">
         <v>5</v>
       </c>
       <c r="R32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S32">
         <v>5</v>
       </c>
       <c r="T32">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U32">
-        <v>0.7333333333333333</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V32">
         <v>5</v>
@@ -3581,37 +3581,37 @@
         <v>5</v>
       </c>
       <c r="P33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q33">
         <v>3</v>
       </c>
       <c r="R33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S33">
         <v>3</v>
       </c>
       <c r="T33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U33">
-        <v>0.7111111111111111</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V33">
         <v>5</v>
       </c>
       <c r="W33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3767,22 +3767,22 @@
         <v>3</v>
       </c>
       <c r="P35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q35">
         <v>3</v>
       </c>
       <c r="R35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S35">
         <v>3</v>
       </c>
       <c r="T35">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U35">
-        <v>0.6666666666666666</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V35">
         <v>5</v>
@@ -3792,12 +3792,12 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4149,22 +4149,22 @@
         <v>5</v>
       </c>
       <c r="P39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q39">
         <v>3</v>
       </c>
       <c r="R39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S39">
         <v>1</v>
       </c>
       <c r="T39">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U39">
-        <v>0.6888888888888889</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V39">
         <v>5</v>
@@ -4179,12 +4179,12 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4247,22 +4247,22 @@
         <v>5</v>
       </c>
       <c r="P40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S40">
         <v>1</v>
       </c>
       <c r="T40">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U40">
-        <v>0.6888888888888889</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V40">
         <v>5</v>
@@ -4277,12 +4277,12 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4348,19 +4348,19 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S41">
         <v>1</v>
       </c>
       <c r="T41">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U41">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="V41">
         <v>5</v>
@@ -4446,19 +4446,19 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S42">
         <v>1</v>
       </c>
       <c r="T42">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U42">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V42">
         <v>5</v>
@@ -4544,19 +4544,19 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S43">
         <v>5</v>
       </c>
       <c r="T43">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U43">
-        <v>0.4222222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="V43">
         <v>5</v>
@@ -4566,12 +4566,12 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>Stability,Riparian</t>
+          <t>Stability</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
@@ -5227,22 +5227,22 @@
         <v>5</v>
       </c>
       <c r="P50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q50">
         <v>1</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S50">
         <v>5</v>
       </c>
       <c r="T50">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U50">
-        <v>0.5555555555555556</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V50">
         <v>5</v>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -5465,7 +5465,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 04</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5497,16 +5497,16 @@
         <v>3</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J53">
         <v>5</v>
       </c>
       <c r="K53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L53">
         <v>3</v>
@@ -5515,10 +5515,10 @@
         <v>3</v>
       </c>
       <c r="N53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P53">
         <v>3</v>
@@ -5533,37 +5533,37 @@
         <v>1</v>
       </c>
       <c r="T53">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="U53">
-        <v>0.5555555555555556</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V53">
         <v>5</v>
       </c>
       <c r="W53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Nason Creek Lower 04</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -5661,7 +5661,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -5717,22 +5717,22 @@
         <v>1</v>
       </c>
       <c r="P55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q55">
         <v>3</v>
       </c>
       <c r="R55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S55">
         <v>1</v>
       </c>
       <c r="T55">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U55">
-        <v>0.5555555555555556</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V55">
         <v>5</v>
@@ -5759,7 +5759,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -5857,7 +5857,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 08</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -5888,6 +5888,9 @@
       <c r="G57">
         <v>3</v>
       </c>
+      <c r="H57">
+        <v>3</v>
+      </c>
       <c r="I57">
         <v>3</v>
       </c>
@@ -5901,10 +5904,10 @@
         <v>3</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O57">
         <v>1</v>
@@ -5913,19 +5916,19 @@
         <v>3</v>
       </c>
       <c r="Q57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S57">
         <v>1</v>
       </c>
       <c r="T57">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="U57">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V57">
         <v>5</v>
@@ -5935,12 +5938,12 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
@@ -5952,7 +5955,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Nason Creek Lower 08</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -5981,19 +5984,16 @@
         </is>
       </c>
       <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58">
         <v>3</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58">
         <v>5</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L58">
         <v>3</v>
@@ -6005,13 +6005,13 @@
         <v>1</v>
       </c>
       <c r="O58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R58">
         <v>2</v>
@@ -6020,10 +6020,10 @@
         <v>1</v>
       </c>
       <c r="T58">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U58">
-        <v>0.4222222222222222</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V58">
         <v>5</v>
@@ -6033,12 +6033,12 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
@@ -6050,7 +6050,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -6148,7 +6148,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 11</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6177,49 +6177,49 @@
         </is>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H60">
         <v>3</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L60">
         <v>3</v>
       </c>
       <c r="M60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N60">
         <v>1</v>
       </c>
       <c r="O60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q60">
         <v>1</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S60">
         <v>1</v>
       </c>
       <c r="T60">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U60">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="V60">
         <v>5</v>
@@ -6229,24 +6229,24 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Nason Creek Lower 11</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -6287,7 +6287,7 @@
         <v>3</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L61">
         <v>3</v>
@@ -6296,28 +6296,28 @@
         <v>3</v>
       </c>
       <c r="N61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q61">
         <v>1</v>
       </c>
       <c r="R61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S61">
         <v>1</v>
       </c>
       <c r="T61">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U61">
-        <v>0.4666666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V61">
         <v>5</v>
@@ -6327,12 +6327,12 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
@@ -6344,7 +6344,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -6442,7 +6442,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -6540,7 +6540,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -6581,10 +6581,10 @@
         <v>3</v>
       </c>
       <c r="K64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M64">
         <v>3</v>
@@ -6595,20 +6595,23 @@
       <c r="O64">
         <v>3</v>
       </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
       <c r="Q64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S64">
         <v>1</v>
       </c>
       <c r="T64">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="U64">
-        <v>0.6</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V64">
         <v>5</v>
@@ -6618,34 +6621,34 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Twisp River Lower 01</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -6664,49 +6667,46 @@
         </is>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H65">
         <v>3</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O65">
         <v>3</v>
       </c>
-      <c r="P65">
-        <v>1</v>
-      </c>
       <c r="Q65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S65">
         <v>1</v>
       </c>
       <c r="T65">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="U65">
-        <v>0.3555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="V65">
         <v>5</v>
@@ -6716,24 +6716,24 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Twisp River Lower 01</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -6774,7 +6774,7 @@
         <v>5</v>
       </c>
       <c r="K66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -6783,7 +6783,7 @@
         <v>1</v>
       </c>
       <c r="N66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O66">
         <v>3</v>
@@ -6792,19 +6792,19 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S66">
         <v>1</v>
       </c>
       <c r="T66">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="U66">
-        <v>0.4666666666666667</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="V66">
         <v>5</v>
@@ -6814,12 +6814,12 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -6831,7 +6831,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -6872,7 +6872,7 @@
         <v>5</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L67">
         <v>1</v>
@@ -6884,7 +6884,7 @@
         <v>3</v>
       </c>
       <c r="O67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P67">
         <v>1</v>
@@ -6899,10 +6899,10 @@
         <v>1</v>
       </c>
       <c r="T67">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U67">
-        <v>0.3777777777777778</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V67">
         <v>5</v>
@@ -6912,12 +6912,12 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
@@ -6929,7 +6929,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -7027,7 +7027,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -7125,7 +7125,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -7157,16 +7157,16 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L70">
         <v>1</v>
@@ -7175,28 +7175,28 @@
         <v>1</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P70">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S70">
         <v>1</v>
       </c>
       <c r="T70">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U70">
-        <v>0.3333333333333333</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V70">
         <v>5</v>
@@ -7206,24 +7206,24 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -7252,13 +7252,13 @@
         </is>
       </c>
       <c r="G71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J71">
         <v>3</v>
@@ -7270,31 +7270,31 @@
         <v>1</v>
       </c>
       <c r="M71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S71">
         <v>1</v>
       </c>
       <c r="T71">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="U71">
-        <v>0.5555555555555556</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V71">
         <v>5</v>
@@ -7304,24 +7304,24 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -7359,13 +7359,13 @@
         <v>3</v>
       </c>
       <c r="J72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M72">
         <v>3</v>
@@ -7374,25 +7374,25 @@
         <v>3</v>
       </c>
       <c r="O72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S72">
         <v>1</v>
       </c>
       <c r="T72">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U72">
-        <v>0.5111111111111111</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V72">
         <v>5</v>
@@ -7402,24 +7402,24 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -7451,13 +7451,13 @@
         <v>3</v>
       </c>
       <c r="H73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K73">
         <v>1</v>
@@ -7466,13 +7466,13 @@
         <v>3</v>
       </c>
       <c r="M73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P73">
         <v>1</v>
@@ -7487,10 +7487,10 @@
         <v>1</v>
       </c>
       <c r="T73">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="U73">
-        <v>0.4444444444444444</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V73">
         <v>5</v>
@@ -7500,24 +7500,24 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Twisp River Lower 09</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -7549,13 +7549,13 @@
         <v>3</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -7564,31 +7564,31 @@
         <v>3</v>
       </c>
       <c r="M74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P74">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S74">
         <v>1</v>
       </c>
       <c r="T74">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="U74">
-        <v>0.5333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V74">
         <v>5</v>
@@ -7598,24 +7598,24 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -7653,13 +7653,13 @@
         <v>3</v>
       </c>
       <c r="J75">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K75">
         <v>1</v>
       </c>
       <c r="L75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M75">
         <v>3</v>
@@ -7674,19 +7674,19 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S75">
         <v>1</v>
       </c>
       <c r="T75">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U75">
-        <v>0.5111111111111111</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V75">
         <v>5</v>
@@ -7696,24 +7696,24 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -7723,7 +7723,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -7751,67 +7751,67 @@
         <v>3</v>
       </c>
       <c r="J76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K76">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M76">
         <v>3</v>
       </c>
       <c r="N76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S76">
         <v>1</v>
       </c>
       <c r="T76">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="U76">
-        <v>0.7333333333333333</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V76">
         <v>5</v>
       </c>
       <c r="W76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -7855,7 +7855,7 @@
         <v>5</v>
       </c>
       <c r="L77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M77">
         <v>3</v>
@@ -7879,10 +7879,10 @@
         <v>1</v>
       </c>
       <c r="T77">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U77">
-        <v>0.7777777777777778</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V77">
         <v>5</v>
@@ -7897,19 +7897,19 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -7938,31 +7938,31 @@
         </is>
       </c>
       <c r="G78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H78">
         <v>3</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L78">
         <v>5</v>
       </c>
       <c r="M78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P78">
         <v>3</v>
@@ -7977,37 +7977,37 @@
         <v>1</v>
       </c>
       <c r="T78">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="U78">
-        <v>0.6222222222222222</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V78">
         <v>5</v>
       </c>
       <c r="W78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -8105,7 +8105,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -8203,7 +8203,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -8232,16 +8232,16 @@
         </is>
       </c>
       <c r="G81">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H81">
         <v>3</v>
       </c>
       <c r="I81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -8250,31 +8250,31 @@
         <v>5</v>
       </c>
       <c r="M81">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N81">
         <v>3</v>
       </c>
       <c r="O81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P81">
         <v>3</v>
       </c>
       <c r="Q81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T81">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U81">
-        <v>0.6666666666666666</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V81">
         <v>5</v>
@@ -8284,24 +8284,24 @@
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -8399,17 +8399,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 02</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -8428,13 +8428,13 @@
         </is>
       </c>
       <c r="G83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J83">
         <v>5</v>
@@ -8443,16 +8443,16 @@
         <v>1</v>
       </c>
       <c r="L83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P83">
         <v>3</v>
@@ -8464,40 +8464,40 @@
         <v>4</v>
       </c>
       <c r="S83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T83">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U83">
-        <v>0.7111111111111111</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V83">
         <v>5</v>
       </c>
       <c r="W83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 03</t>
+          <t>Wenatchee River Beaver 02</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -8526,28 +8526,28 @@
         </is>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J84">
         <v>5</v>
       </c>
       <c r="K84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L84">
         <v>1</v>
       </c>
       <c r="M84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O84">
         <v>3</v>
@@ -8556,46 +8556,46 @@
         <v>3</v>
       </c>
       <c r="Q84">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S84">
         <v>3</v>
       </c>
       <c r="T84">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="U84">
-        <v>0.5555555555555556</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V84">
         <v>5</v>
       </c>
       <c r="W84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 04</t>
+          <t>Wenatchee River Beaver 03</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -8693,7 +8693,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 05</t>
+          <t>Wenatchee River Beaver 04</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -8725,25 +8725,25 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L86">
         <v>1</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O86">
         <v>3</v>
@@ -8752,19 +8752,19 @@
         <v>3</v>
       </c>
       <c r="Q86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S86">
         <v>3</v>
       </c>
       <c r="T86">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="U86">
-        <v>0.3777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V86">
         <v>5</v>
@@ -8774,24 +8774,24 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 06</t>
+          <t>Wenatchee River Beaver 05</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -8823,46 +8823,46 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>3</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>3</v>
+      </c>
+      <c r="P87">
+        <v>3</v>
+      </c>
+      <c r="Q87">
+        <v>1</v>
+      </c>
+      <c r="R87">
         <v>2</v>
       </c>
-      <c r="J87">
-        <v>5</v>
-      </c>
-      <c r="K87">
-        <v>1</v>
-      </c>
-      <c r="L87">
-        <v>1</v>
-      </c>
-      <c r="M87">
-        <v>1</v>
-      </c>
-      <c r="N87">
-        <v>1</v>
-      </c>
-      <c r="O87">
-        <v>3</v>
-      </c>
-      <c r="P87">
-        <v>1</v>
-      </c>
-      <c r="Q87">
-        <v>1</v>
-      </c>
-      <c r="R87">
-        <v>1</v>
-      </c>
       <c r="S87">
         <v>3</v>
       </c>
       <c r="T87">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="U87">
-        <v>0.4</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="V87">
         <v>5</v>
@@ -8872,24 +8872,24 @@
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 07</t>
+          <t>Wenatchee River Beaver 06</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -8987,7 +8987,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 08</t>
+          <t>Wenatchee River Beaver 07</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -9016,13 +9016,13 @@
         </is>
       </c>
       <c r="G89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H89">
         <v>3</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J89">
         <v>5</v>
@@ -9037,22 +9037,22 @@
         <v>1</v>
       </c>
       <c r="N89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q89">
         <v>1</v>
       </c>
       <c r="R89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T89">
         <v>18</v>
@@ -9068,12 +9068,12 @@
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
@@ -9085,7 +9085,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 09</t>
+          <t>Wenatchee River Beaver 08</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -9114,13 +9114,13 @@
         </is>
       </c>
       <c r="G90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H90">
         <v>3</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -9135,7 +9135,7 @@
         <v>1</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O90">
         <v>1</v>
@@ -9144,10 +9144,10 @@
         <v>3</v>
       </c>
       <c r="Q90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S90">
         <v>1</v>
@@ -9166,24 +9166,24 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>Riparian</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 10</t>
+          <t>Wenatchee River Beaver 09</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -9221,22 +9221,22 @@
         <v>4</v>
       </c>
       <c r="J91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L91">
         <v>1</v>
       </c>
       <c r="M91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P91">
         <v>3</v>
@@ -9251,10 +9251,10 @@
         <v>1</v>
       </c>
       <c r="T91">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="U91">
-        <v>0.5333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="V91">
         <v>5</v>
@@ -9264,24 +9264,24 @@
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Riparian</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 11</t>
+          <t>Wenatchee River Beaver 10</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -9313,16 +9313,16 @@
         <v>5</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J92">
         <v>3</v>
       </c>
       <c r="K92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L92">
         <v>1</v>
@@ -9337,22 +9337,22 @@
         <v>3</v>
       </c>
       <c r="P92">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q92">
         <v>3</v>
       </c>
       <c r="R92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S92">
         <v>1</v>
       </c>
       <c r="T92">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U92">
-        <v>0.4888888888888889</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V92">
         <v>5</v>
@@ -9362,113 +9362,211 @@
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
+          <t>Wenatchee River Beaver 11</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G93">
+        <v>5</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>3</v>
+      </c>
+      <c r="J93">
+        <v>3</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>3</v>
+      </c>
+      <c r="N93">
+        <v>3</v>
+      </c>
+      <c r="O93">
+        <v>3</v>
+      </c>
+      <c r="P93">
+        <v>3</v>
+      </c>
+      <c r="Q93">
+        <v>3</v>
+      </c>
+      <c r="R93">
+        <v>3</v>
+      </c>
+      <c r="S93">
+        <v>1</v>
+      </c>
+      <c r="T93">
+        <v>21</v>
+      </c>
+      <c r="U93">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="V93">
+        <v>5</v>
+      </c>
+      <c r="W93">
+        <v>1</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z93" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
           <t>Wenatchee River Beaver 12</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>Wenatchee</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
-      <c r="H93">
-        <v>3</v>
-      </c>
-      <c r="I93">
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94">
         <v>2</v>
       </c>
-      <c r="J93">
-        <v>5</v>
-      </c>
-      <c r="K93">
-        <v>1</v>
-      </c>
-      <c r="L93">
-        <v>1</v>
-      </c>
-      <c r="M93">
-        <v>3</v>
-      </c>
-      <c r="N93">
-        <v>3</v>
-      </c>
-      <c r="O93">
-        <v>3</v>
-      </c>
-      <c r="P93">
-        <v>3</v>
-      </c>
-      <c r="Q93">
-        <v>3</v>
-      </c>
-      <c r="R93">
-        <v>3</v>
-      </c>
-      <c r="S93">
-        <v>1</v>
-      </c>
-      <c r="T93">
+      <c r="J94">
+        <v>5</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>3</v>
+      </c>
+      <c r="N94">
+        <v>3</v>
+      </c>
+      <c r="O94">
+        <v>3</v>
+      </c>
+      <c r="P94">
+        <v>3</v>
+      </c>
+      <c r="Q94">
+        <v>3</v>
+      </c>
+      <c r="R94">
+        <v>3</v>
+      </c>
+      <c r="S94">
+        <v>1</v>
+      </c>
+      <c r="T94">
         <v>22</v>
       </c>
-      <c r="U93">
+      <c r="U94">
         <v>0.4888888888888889</v>
       </c>
-      <c r="V93">
-        <v>5</v>
-      </c>
-      <c r="W93">
-        <v>1</v>
-      </c>
-      <c r="X93" t="inlineStr">
+      <c r="V94">
+        <v>5</v>
+      </c>
+      <c r="W94">
+        <v>1</v>
+      </c>
+      <c r="X94" t="inlineStr">
         <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
-      <c r="Y93" t="inlineStr">
+      <c r="Y94" t="inlineStr">
         <is>
           <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
-      <c r="Z93" t="inlineStr">
+      <c r="Z94" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>

--- a/Output/Spring_Chinook_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Spring_Chinook_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z94"/>
+  <dimension ref="A1:Z91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,12 +420,12 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain_score</t>
+          <t>FloodplainConnectivity_score</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels_score</t>
+          <t>Off-Channel/Side-Channels_score</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -578,12 +578,12 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -676,12 +676,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -774,12 +774,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1166,12 +1166,12 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
@@ -1264,12 +1264,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
@@ -1357,17 +1357,17 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
@@ -1433,19 +1433,19 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S11">
         <v>1</v>
       </c>
       <c r="T11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U11">
-        <v>0.6666666666666666</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V11">
         <v>5</v>
@@ -1531,19 +1531,19 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S12">
         <v>1</v>
       </c>
       <c r="T12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U12">
-        <v>0.6666666666666666</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V12">
         <v>5</v>
@@ -1656,12 +1656,12 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1754,12 +1754,12 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1950,12 +1950,12 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2043,17 +2043,17 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,FloodplainConnectivity,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2239,17 +2239,17 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,FloodplainConnectivity,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2337,17 +2337,17 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,FloodplainConnectivity,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2413,19 +2413,19 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S21">
         <v>1</v>
       </c>
       <c r="T21">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U21">
-        <v>0.5555555555555556</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V21">
         <v>5</v>
@@ -2435,17 +2435,17 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,FloodplainConnectivity,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels</t>
+          <t>Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M24">
         <v>3</v>
@@ -2711,10 +2711,10 @@
         <v>1</v>
       </c>
       <c r="T24">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="U24">
-        <v>0.5555555555555556</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V24">
         <v>5</v>
@@ -2724,17 +2724,17 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel/Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain</t>
+          <t>Stability,FloodplainConnectivity</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2785,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -2809,10 +2809,10 @@
         <v>1</v>
       </c>
       <c r="T25">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="U25">
-        <v>0.4666666666666667</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V25">
         <v>5</v>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2883,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -2907,10 +2907,10 @@
         <v>3</v>
       </c>
       <c r="T26">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="U26">
-        <v>0.5777777777777777</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V26">
         <v>5</v>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -3005,10 +3005,10 @@
         <v>1</v>
       </c>
       <c r="T27">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="U27">
-        <v>0.5111111111111111</v>
+        <v>0.6</v>
       </c>
       <c r="V27">
         <v>5</v>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="T28">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U28">
-        <v>0.4222222222222222</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V28">
         <v>5</v>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -3201,10 +3201,10 @@
         <v>5</v>
       </c>
       <c r="T29">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="U29">
-        <v>0.5777777777777777</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V29">
         <v>5</v>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
@@ -3312,17 +3312,17 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,FloodplainConnectivity,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="G31">
@@ -3410,17 +3410,17 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain</t>
+          <t>Cover-Wood,FloodplainConnectivity</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
     </row>
@@ -3513,12 +3513,12 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels</t>
+          <t>Flow-SummerBaseFlow,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
@@ -3606,12 +3606,12 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3699,12 +3699,12 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3792,12 +3792,12 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3885,12 +3885,12 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3983,12 +3983,12 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
@@ -4081,12 +4081,12 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
@@ -4179,12 +4179,12 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
         <v>3</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M40">
         <v>3</v>
@@ -4250,25 +4250,25 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S40">
         <v>1</v>
       </c>
       <c r="T40">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U40">
-        <v>0.6444444444444445</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V40">
         <v>5</v>
       </c>
       <c r="W40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
@@ -4277,12 +4277,12 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4348,19 +4348,19 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S41">
         <v>1</v>
       </c>
       <c r="T41">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U41">
-        <v>0.6</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V41">
         <v>5</v>
@@ -4370,17 +4370,17 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>FloodplainConnectivity,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4446,19 +4446,19 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S42">
         <v>1</v>
       </c>
       <c r="T42">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U42">
-        <v>0.5555555555555556</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V42">
         <v>5</v>
@@ -4473,12 +4473,12 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4544,19 +4544,19 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S43">
         <v>5</v>
       </c>
       <c r="T43">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U43">
-        <v>0.4</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V43">
         <v>5</v>
@@ -4566,17 +4566,17 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>Stability</t>
+          <t>Stability,Riparian</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
@@ -4664,7 +4664,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -4674,7 +4674,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
@@ -4762,7 +4762,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -4772,7 +4772,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
@@ -4860,17 +4860,17 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Stability,FloodplainConnectivity,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="G47">
@@ -4958,17 +4958,17 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels</t>
+          <t>Stability,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
@@ -5056,17 +5056,17 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels</t>
+          <t>Stability,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
@@ -5159,12 +5159,12 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Cover-Wood,FloodplainConnectivity,Riparian</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian</t>
         </is>
       </c>
     </row>
@@ -5252,17 +5252,17 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels</t>
+          <t>Stability,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
     </row>
@@ -5350,17 +5350,17 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -5453,12 +5453,12 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -5524,19 +5524,19 @@
         <v>3</v>
       </c>
       <c r="Q53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S53">
         <v>1</v>
       </c>
       <c r="T53">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U53">
-        <v>0.7555555555555555</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V53">
         <v>5</v>
@@ -5551,12 +5551,12 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Flow-SummerBaseFlow,FloodplainConnectivity</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,FloodplainConnectivity,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -5607,7 +5607,7 @@
         <v>3</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M54">
         <v>3</v>
@@ -5631,10 +5631,10 @@
         <v>1</v>
       </c>
       <c r="T54">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U54">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="V54">
         <v>5</v>
@@ -5649,12 +5649,12 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -5747,12 +5747,12 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -5845,12 +5845,12 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -5943,19 +5943,19 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 08</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -5984,16 +5984,19 @@
         </is>
       </c>
       <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
         <v>3</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J58">
         <v>5</v>
       </c>
       <c r="K58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L58">
         <v>3</v>
@@ -6005,13 +6008,13 @@
         <v>1</v>
       </c>
       <c r="O58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R58">
         <v>2</v>
@@ -6020,10 +6023,10 @@
         <v>1</v>
       </c>
       <c r="T58">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U58">
-        <v>0.4444444444444444</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V58">
         <v>5</v>
@@ -6033,24 +6036,24 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -6131,7 +6134,7 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
@@ -6141,14 +6144,14 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Nason Creek Lower 11</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6177,49 +6180,49 @@
         </is>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H60">
         <v>3</v>
       </c>
       <c r="I60">
+        <v>3</v>
+      </c>
+      <c r="J60">
+        <v>3</v>
+      </c>
+      <c r="K60">
+        <v>3</v>
+      </c>
+      <c r="L60">
+        <v>3</v>
+      </c>
+      <c r="M60">
+        <v>3</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>3</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="R60">
         <v>2</v>
       </c>
-      <c r="J60">
-        <v>5</v>
-      </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-      <c r="L60">
-        <v>3</v>
-      </c>
-      <c r="M60">
-        <v>1</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>3</v>
-      </c>
-      <c r="P60">
-        <v>1</v>
-      </c>
-      <c r="Q60">
-        <v>1</v>
-      </c>
-      <c r="R60">
-        <v>1</v>
-      </c>
       <c r="S60">
         <v>1</v>
       </c>
       <c r="T60">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="U60">
-        <v>0.4</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V60">
         <v>5</v>
@@ -6229,24 +6232,24 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 11</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -6287,7 +6290,7 @@
         <v>3</v>
       </c>
       <c r="K61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L61">
         <v>3</v>
@@ -6296,28 +6299,28 @@
         <v>3</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q61">
         <v>1</v>
       </c>
       <c r="R61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S61">
         <v>1</v>
       </c>
       <c r="T61">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U61">
-        <v>0.4444444444444444</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V61">
         <v>5</v>
@@ -6327,24 +6330,24 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -6430,19 +6433,19 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -6483,10 +6486,10 @@
         <v>3</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M63">
         <v>3</v>
@@ -6497,23 +6500,20 @@
       <c r="O63">
         <v>3</v>
       </c>
-      <c r="P63">
-        <v>1</v>
-      </c>
       <c r="Q63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S63">
         <v>1</v>
       </c>
       <c r="T63">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="U63">
-        <v>0.4666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="V63">
         <v>5</v>
@@ -6523,34 +6523,34 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Twisp River Lower 01</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -6569,28 +6569,28 @@
         </is>
       </c>
       <c r="G64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H64">
         <v>3</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K64">
         <v>1</v>
       </c>
       <c r="L64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O64">
         <v>3</v>
@@ -6608,10 +6608,10 @@
         <v>1</v>
       </c>
       <c r="T64">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="U64">
-        <v>0.4666666666666667</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="V64">
         <v>5</v>
@@ -6621,34 +6621,34 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -6667,25 +6667,25 @@
         </is>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65">
         <v>3</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K65">
         <v>3</v>
       </c>
       <c r="L65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N65">
         <v>3</v>
@@ -6693,20 +6693,23 @@
       <c r="O65">
         <v>3</v>
       </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
       <c r="Q65">
         <v>3</v>
       </c>
       <c r="R65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S65">
         <v>1</v>
       </c>
       <c r="T65">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="U65">
-        <v>0.6</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V65">
         <v>5</v>
@@ -6716,24 +6719,24 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,FloodplainConnectivity,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Twisp River Lower 01</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -6783,28 +6786,28 @@
         <v>1</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P66">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S66">
         <v>1</v>
       </c>
       <c r="T66">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U66">
-        <v>0.3555555555555556</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V66">
         <v>5</v>
@@ -6814,24 +6817,24 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -6872,7 +6875,7 @@
         <v>5</v>
       </c>
       <c r="K67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L67">
         <v>1</v>
@@ -6884,7 +6887,7 @@
         <v>3</v>
       </c>
       <c r="O67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P67">
         <v>1</v>
@@ -6899,10 +6902,10 @@
         <v>1</v>
       </c>
       <c r="T67">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="U67">
-        <v>0.4666666666666667</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V67">
         <v>5</v>
@@ -6912,24 +6915,24 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -7010,24 +7013,24 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -7059,16 +7062,16 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -7077,28 +7080,28 @@
         <v>1</v>
       </c>
       <c r="N69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P69">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S69">
         <v>1</v>
       </c>
       <c r="T69">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U69">
-        <v>0.3777777777777778</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V69">
         <v>5</v>
@@ -7108,24 +7111,24 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -7154,49 +7157,49 @@
         </is>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H70">
         <v>3</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L70">
         <v>1</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N70">
         <v>3</v>
       </c>
       <c r="O70">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q70">
         <v>3</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S70">
         <v>1</v>
       </c>
       <c r="T70">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="U70">
-        <v>0.3777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V70">
         <v>5</v>
@@ -7206,24 +7209,24 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -7252,28 +7255,28 @@
         </is>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O71">
         <v>3</v>
@@ -7291,10 +7294,10 @@
         <v>1</v>
       </c>
       <c r="T71">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="U71">
-        <v>0.3333333333333333</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V71">
         <v>5</v>
@@ -7304,24 +7307,24 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Twisp River Lower 09</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -7353,46 +7356,46 @@
         <v>3</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J72">
         <v>3</v>
       </c>
       <c r="K72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S72">
         <v>1</v>
       </c>
       <c r="T72">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="U72">
-        <v>0.5555555555555556</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V72">
         <v>5</v>
@@ -7402,24 +7405,24 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>CoarseSubstrate</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -7463,7 +7466,7 @@
         <v>1</v>
       </c>
       <c r="L73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M73">
         <v>3</v>
@@ -7478,19 +7481,19 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S73">
         <v>1</v>
       </c>
       <c r="T73">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="U73">
-        <v>0.5111111111111111</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V73">
         <v>5</v>
@@ -7500,24 +7503,24 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -7549,10 +7552,10 @@
         <v>3</v>
       </c>
       <c r="H74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J74">
         <v>3</v>
@@ -7561,16 +7564,16 @@
         <v>1</v>
       </c>
       <c r="L74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P74">
         <v>1</v>
@@ -7585,10 +7588,10 @@
         <v>1</v>
       </c>
       <c r="T74">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="U74">
-        <v>0.4444444444444444</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V74">
         <v>5</v>
@@ -7598,24 +7601,24 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow</t>
+          <t>Stability,CoarseSubstrate,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -7625,7 +7628,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -7656,7 +7659,7 @@
         <v>5</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L75">
         <v>3</v>
@@ -7665,55 +7668,55 @@
         <v>3</v>
       </c>
       <c r="N75">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O75">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q75">
         <v>3</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S75">
         <v>1</v>
       </c>
       <c r="T75">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="U75">
-        <v>0.5333333333333333</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V75">
         <v>5</v>
       </c>
       <c r="W75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -7723,7 +7726,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -7751,10 +7754,10 @@
         <v>3</v>
       </c>
       <c r="J76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L76">
         <v>5</v>
@@ -7763,55 +7766,55 @@
         <v>3</v>
       </c>
       <c r="N76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S76">
         <v>1</v>
       </c>
       <c r="T76">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="U76">
-        <v>0.5111111111111111</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V76">
         <v>5</v>
       </c>
       <c r="W76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,FloodplainConnectivity,Riparian</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,FloodplainConnectivity,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -7840,31 +7843,31 @@
         </is>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H77">
         <v>3</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P77">
         <v>3</v>
@@ -7879,37 +7882,37 @@
         <v>1</v>
       </c>
       <c r="T77">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="U77">
-        <v>0.7333333333333333</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V77">
         <v>5</v>
       </c>
       <c r="W77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>CoarseSubstrate,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -7938,31 +7941,31 @@
         </is>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H78">
         <v>3</v>
       </c>
       <c r="I78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L78">
         <v>5</v>
       </c>
       <c r="M78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P78">
         <v>3</v>
@@ -7977,37 +7980,37 @@
         <v>1</v>
       </c>
       <c r="T78">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="U78">
-        <v>0.7777777777777778</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V78">
         <v>5</v>
       </c>
       <c r="W78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian</t>
+          <t>CoarseSubstrate,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -8093,19 +8096,19 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -8134,49 +8137,49 @@
         </is>
       </c>
       <c r="G80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H80">
         <v>3</v>
       </c>
       <c r="I80">
+        <v>3</v>
+      </c>
+      <c r="J80">
+        <v>5</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>5</v>
+      </c>
+      <c r="M80">
+        <v>3</v>
+      </c>
+      <c r="N80">
+        <v>3</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80">
+        <v>3</v>
+      </c>
+      <c r="Q80">
+        <v>5</v>
+      </c>
+      <c r="R80">
         <v>4</v>
       </c>
-      <c r="J80">
-        <v>3</v>
-      </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-      <c r="L80">
-        <v>5</v>
-      </c>
-      <c r="M80">
-        <v>5</v>
-      </c>
-      <c r="N80">
-        <v>3</v>
-      </c>
-      <c r="O80">
-        <v>3</v>
-      </c>
-      <c r="P80">
-        <v>3</v>
-      </c>
-      <c r="Q80">
-        <v>3</v>
-      </c>
-      <c r="R80">
-        <v>3</v>
-      </c>
       <c r="S80">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T80">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U80">
-        <v>0.6222222222222222</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V80">
         <v>5</v>
@@ -8186,24 +8189,24 @@
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,FloodplainConnectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -8232,49 +8235,49 @@
         </is>
       </c>
       <c r="G81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H81">
         <v>3</v>
       </c>
       <c r="I81">
+        <v>3</v>
+      </c>
+      <c r="J81">
+        <v>5</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>5</v>
+      </c>
+      <c r="M81">
+        <v>3</v>
+      </c>
+      <c r="N81">
+        <v>3</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81">
+        <v>3</v>
+      </c>
+      <c r="Q81">
+        <v>5</v>
+      </c>
+      <c r="R81">
         <v>4</v>
       </c>
-      <c r="J81">
-        <v>3</v>
-      </c>
-      <c r="K81">
-        <v>1</v>
-      </c>
-      <c r="L81">
-        <v>5</v>
-      </c>
-      <c r="M81">
-        <v>5</v>
-      </c>
-      <c r="N81">
-        <v>3</v>
-      </c>
-      <c r="O81">
-        <v>3</v>
-      </c>
-      <c r="P81">
-        <v>3</v>
-      </c>
-      <c r="Q81">
-        <v>3</v>
-      </c>
-      <c r="R81">
-        <v>3</v>
-      </c>
       <c r="S81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T81">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U81">
-        <v>0.6222222222222222</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V81">
         <v>5</v>
@@ -8284,34 +8287,34 @@
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,FloodplainConnectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Wenatchee River Beaver 03</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -8330,19 +8333,19 @@
         </is>
       </c>
       <c r="G82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H82">
         <v>3</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J82">
         <v>5</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L82">
         <v>5</v>
@@ -8354,25 +8357,25 @@
         <v>3</v>
       </c>
       <c r="O82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P82">
         <v>3</v>
       </c>
       <c r="Q82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T82">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U82">
-        <v>0.6666666666666666</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V82">
         <v>5</v>
@@ -8380,36 +8383,31 @@
       <c r="W82">
         <v>1</v>
       </c>
-      <c r="X82" t="inlineStr">
-        <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
-        </is>
-      </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Wenatchee River Beaver 04</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -8428,19 +8426,19 @@
         </is>
       </c>
       <c r="G83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H83">
         <v>3</v>
       </c>
       <c r="I83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J83">
         <v>5</v>
       </c>
       <c r="K83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L83">
         <v>5</v>
@@ -8452,25 +8450,25 @@
         <v>3</v>
       </c>
       <c r="O83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P83">
         <v>3</v>
       </c>
       <c r="Q83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T83">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U83">
-        <v>0.6666666666666666</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V83">
         <v>5</v>
@@ -8478,26 +8476,21 @@
       <c r="W83">
         <v>1</v>
       </c>
-      <c r="X83" t="inlineStr">
-        <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
-        </is>
-      </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 02</t>
+          <t>Wenatchee River Beaver 05</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -8526,28 +8519,28 @@
         </is>
       </c>
       <c r="G84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K84">
         <v>1</v>
       </c>
       <c r="L84">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O84">
         <v>3</v>
@@ -8556,46 +8549,46 @@
         <v>3</v>
       </c>
       <c r="Q84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S84">
         <v>3</v>
       </c>
       <c r="T84">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="U84">
-        <v>0.7111111111111111</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V84">
         <v>5</v>
       </c>
       <c r="W84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow</t>
+          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 03</t>
+          <t>Wenatchee River Beaver 06</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -8636,37 +8629,37 @@
         <v>5</v>
       </c>
       <c r="K85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O85">
         <v>3</v>
       </c>
       <c r="P85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q85">
         <v>1</v>
       </c>
       <c r="R85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S85">
         <v>3</v>
       </c>
       <c r="T85">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="U85">
-        <v>0.5555555555555556</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V85">
         <v>5</v>
@@ -8676,24 +8669,24 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 04</t>
+          <t>Wenatchee River Beaver 07</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -8734,37 +8727,37 @@
         <v>5</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L86">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O86">
         <v>3</v>
       </c>
       <c r="P86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q86">
         <v>1</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S86">
         <v>3</v>
       </c>
       <c r="T86">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="U86">
-        <v>0.5555555555555556</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V86">
         <v>5</v>
@@ -8774,24 +8767,24 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 05</t>
+          <t>Wenatchee River Beaver 08</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -8820,31 +8813,31 @@
         </is>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K87">
         <v>1</v>
       </c>
       <c r="L87">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M87">
         <v>1</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P87">
         <v>3</v>
@@ -8856,13 +8849,13 @@
         <v>2</v>
       </c>
       <c r="S87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T87">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="U87">
-        <v>0.3555555555555556</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V87">
         <v>5</v>
@@ -8872,24 +8865,24 @@
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,FloodplainConnectivity,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 06</t>
+          <t>Wenatchee River Beaver 09</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -8918,13 +8911,13 @@
         </is>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H88">
         <v>3</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J88">
         <v>5</v>
@@ -8933,7 +8926,7 @@
         <v>1</v>
       </c>
       <c r="L88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M88">
         <v>1</v>
@@ -8942,25 +8935,25 @@
         <v>1</v>
       </c>
       <c r="O88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T88">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="U88">
-        <v>0.4</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V88">
         <v>5</v>
@@ -8970,24 +8963,24 @@
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Riparian</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 07</t>
+          <t>Wenatchee River Beaver 10</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -9016,49 +9009,49 @@
         </is>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H89">
         <v>3</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O89">
         <v>3</v>
       </c>
       <c r="P89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T89">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="U89">
-        <v>0.4</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V89">
         <v>5</v>
@@ -9068,24 +9061,24 @@
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 08</t>
+          <t>Wenatchee River Beaver 11</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -9114,49 +9107,49 @@
         </is>
       </c>
       <c r="G90">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I90">
         <v>3</v>
       </c>
       <c r="J90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K90">
         <v>1</v>
       </c>
       <c r="L90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N90">
         <v>3</v>
       </c>
       <c r="O90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P90">
         <v>3</v>
       </c>
       <c r="Q90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S90">
         <v>1</v>
       </c>
       <c r="T90">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="U90">
-        <v>0.4</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V90">
         <v>5</v>
@@ -9166,24 +9159,24 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,CoarseSubstrate,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 09</t>
+          <t>Wenatchee River Beaver 12</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -9212,13 +9205,13 @@
         </is>
       </c>
       <c r="G91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H91">
         <v>3</v>
       </c>
       <c r="I91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J91">
         <v>5</v>
@@ -9227,16 +9220,16 @@
         <v>1</v>
       </c>
       <c r="L91">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P91">
         <v>3</v>
@@ -9251,10 +9244,10 @@
         <v>1</v>
       </c>
       <c r="T91">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="U91">
-        <v>0.4</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V91">
         <v>5</v>
@@ -9264,311 +9257,17 @@
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>Riparian</t>
+          <t>Stability,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 10</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G92">
-        <v>5</v>
-      </c>
-      <c r="H92">
-        <v>3</v>
-      </c>
-      <c r="I92">
-        <v>4</v>
-      </c>
-      <c r="J92">
-        <v>3</v>
-      </c>
-      <c r="K92">
-        <v>3</v>
-      </c>
-      <c r="L92">
-        <v>1</v>
-      </c>
-      <c r="M92">
-        <v>3</v>
-      </c>
-      <c r="N92">
-        <v>3</v>
-      </c>
-      <c r="O92">
-        <v>3</v>
-      </c>
-      <c r="P92">
-        <v>3</v>
-      </c>
-      <c r="Q92">
-        <v>3</v>
-      </c>
-      <c r="R92">
-        <v>3</v>
-      </c>
-      <c r="S92">
-        <v>1</v>
-      </c>
-      <c r="T92">
-        <v>24</v>
-      </c>
-      <c r="U92">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="V92">
-        <v>5</v>
-      </c>
-      <c r="W92">
-        <v>1</v>
-      </c>
-      <c r="X92" t="inlineStr">
-        <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y92" t="inlineStr">
-        <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z92" t="inlineStr">
-        <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 11</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G93">
-        <v>5</v>
-      </c>
-      <c r="H93">
-        <v>1</v>
-      </c>
-      <c r="I93">
-        <v>3</v>
-      </c>
-      <c r="J93">
-        <v>3</v>
-      </c>
-      <c r="K93">
-        <v>1</v>
-      </c>
-      <c r="L93">
-        <v>1</v>
-      </c>
-      <c r="M93">
-        <v>3</v>
-      </c>
-      <c r="N93">
-        <v>3</v>
-      </c>
-      <c r="O93">
-        <v>3</v>
-      </c>
-      <c r="P93">
-        <v>3</v>
-      </c>
-      <c r="Q93">
-        <v>3</v>
-      </c>
-      <c r="R93">
-        <v>3</v>
-      </c>
-      <c r="S93">
-        <v>1</v>
-      </c>
-      <c r="T93">
-        <v>21</v>
-      </c>
-      <c r="U93">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="V93">
-        <v>5</v>
-      </c>
-      <c r="W93">
-        <v>1</v>
-      </c>
-      <c r="X93" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y93" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z93" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 12</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94">
-        <v>3</v>
-      </c>
-      <c r="I94">
-        <v>2</v>
-      </c>
-      <c r="J94">
-        <v>5</v>
-      </c>
-      <c r="K94">
-        <v>1</v>
-      </c>
-      <c r="L94">
-        <v>1</v>
-      </c>
-      <c r="M94">
-        <v>3</v>
-      </c>
-      <c r="N94">
-        <v>3</v>
-      </c>
-      <c r="O94">
-        <v>3</v>
-      </c>
-      <c r="P94">
-        <v>3</v>
-      </c>
-      <c r="Q94">
-        <v>3</v>
-      </c>
-      <c r="R94">
-        <v>3</v>
-      </c>
-      <c r="S94">
-        <v>1</v>
-      </c>
-      <c r="T94">
-        <v>22</v>
-      </c>
-      <c r="U94">
-        <v>0.4888888888888889</v>
-      </c>
-      <c r="V94">
-        <v>5</v>
-      </c>
-      <c r="W94">
-        <v>1</v>
-      </c>
-      <c r="X94" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y94" t="inlineStr">
-        <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z94" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>

--- a/Output/Spring_Chinook_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Spring_Chinook_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z91"/>
+  <dimension ref="A1:Z93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -578,12 +578,12 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -676,12 +676,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -774,12 +774,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -872,12 +872,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1161,17 +1161,17 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>ChannelStability,Cover-Wood</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,Stability,CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
     </row>
@@ -1259,17 +1259,17 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>ChannelStability,Cover-Wood</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,Stability,CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
     </row>
@@ -1357,17 +1357,17 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel/Side-Channels</t>
+          <t>ChannelStability,Cover-Wood,Off-Channel/Side-Channels,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,Stability,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1651,17 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1749,17 +1749,17 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels</t>
+          <t>BankStability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1950,12 +1950,12 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels</t>
+          <t>BankStability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2043,17 +2043,17 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Temperature-Rearing</t>
+          <t>Cover-Wood,FloodplainConnectivity,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
+          <t>BankStability,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2146,12 +2146,12 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Flow-SummerBaseFlow,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2239,17 +2239,17 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Temperature-Rearing</t>
+          <t>Cover-Wood,FloodplainConnectivity,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
+          <t>BankStability,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2337,17 +2337,17 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Temperature-Rearing</t>
+          <t>Cover-Wood,FloodplainConnectivity,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
+          <t>BankStability,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2435,17 +2435,17 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Temperature-Rearing</t>
+          <t>Cover-Wood,FloodplainConnectivity,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
+          <t>BankStability,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2533,17 +2533,17 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>Off-Channel/Side-Channels</t>
+          <t>ChannelStability,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
     </row>
@@ -2629,14 +2629,19 @@
       <c r="W23">
         <v>3</v>
       </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>ChannelStability</t>
+        </is>
+      </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
     </row>
@@ -2687,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>3</v>
@@ -2711,10 +2716,10 @@
         <v>1</v>
       </c>
       <c r="T24">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="U24">
-        <v>0.6444444444444445</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V24">
         <v>5</v>
@@ -2724,17 +2729,17 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel/Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>Stability,FloodplainConnectivity</t>
+          <t>BankStability,ChannelStability,Stability,FloodplainConnectivity</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2785,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -2809,10 +2814,10 @@
         <v>1</v>
       </c>
       <c r="T25">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="U25">
-        <v>0.5555555555555556</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V25">
         <v>5</v>
@@ -2822,17 +2827,17 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>Stability,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2883,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -2907,10 +2912,10 @@
         <v>3</v>
       </c>
       <c r="T26">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="U26">
-        <v>0.6666666666666666</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V26">
         <v>5</v>
@@ -2920,17 +2925,17 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2981,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -3005,10 +3010,10 @@
         <v>1</v>
       </c>
       <c r="T27">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U27">
-        <v>0.6</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V27">
         <v>5</v>
@@ -3018,7 +3023,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3028,7 +3033,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -3103,10 +3108,10 @@
         <v>1</v>
       </c>
       <c r="T28">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U28">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V28">
         <v>5</v>
@@ -3116,7 +3121,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3126,7 +3131,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3182,7 @@
         <v>1</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -3201,10 +3206,10 @@
         <v>5</v>
       </c>
       <c r="T29">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="U29">
-        <v>0.6666666666666666</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V29">
         <v>5</v>
@@ -3214,17 +3219,17 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality</t>
+          <t>PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
         </is>
       </c>
     </row>
@@ -3410,17 +3415,17 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity</t>
+          <t>BankStability,Cover-Wood,FloodplainConnectivity,Riparian-Disturbance</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
+          <t>ChannelStability,Stability,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
     </row>
@@ -3513,12 +3518,12 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel/Side-Channels</t>
+          <t>Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
         </is>
       </c>
     </row>
@@ -3606,12 +3611,12 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3699,12 +3704,12 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3792,12 +3797,12 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3885,12 +3890,12 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3978,17 +3983,17 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover-Wood,Riparian-Disturbance</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
     </row>
@@ -4081,12 +4086,12 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
     </row>
@@ -4174,17 +4179,17 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>BankStability,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4240,7 @@
         <v>3</v>
       </c>
       <c r="L40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M40">
         <v>3</v>
@@ -4259,30 +4264,30 @@
         <v>1</v>
       </c>
       <c r="T40">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U40">
-        <v>0.7111111111111111</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V40">
         <v>5</v>
       </c>
       <c r="W40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4370,17 +4375,17 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>FloodplainConnectivity,Temperature-Rearing</t>
+          <t>FloodplainConnectivity,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
+          <t>ChannelStability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>ChannelStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4468,17 +4473,17 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4566,17 +4571,17 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>Stability,Riparian</t>
+          <t>ChannelStability,Stability,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
     </row>
@@ -4664,17 +4669,17 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels</t>
+          <t>BankStability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>ChannelStability,Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
     </row>
@@ -4762,17 +4767,17 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Riparian</t>
+          <t>ChannelStability,Stability,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
     </row>
@@ -4860,17 +4865,17 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>Stability,FloodplainConnectivity,PoolQuantity&amp;Quality</t>
+          <t>BankStability,ChannelStability,Stability,FloodplainConnectivity,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
     </row>
@@ -4958,17 +4963,17 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel/Side-Channels</t>
+          <t>ChannelStability,Stability,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
     </row>
@@ -5056,17 +5061,17 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel/Side-Channels</t>
+          <t>ChannelStability,Stability,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
     </row>
@@ -5154,17 +5159,17 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Flow-SummerBaseFlow,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,FloodplainConnectivity,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
     </row>
@@ -5252,17 +5257,17 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel/Side-Channels</t>
+          <t>ChannelStability,Stability,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
     </row>
@@ -5350,17 +5355,17 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-Disturbance</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>ChannelStability,Stability,Off-Channel/Side-Channels,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -5453,12 +5458,12 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -5551,12 +5556,12 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,FloodplainConnectivity</t>
+          <t>BankStability,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,FloodplainConnectivity,Temperature-Rearing</t>
+          <t>BankStability,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -5649,12 +5654,12 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -5742,17 +5747,17 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -5845,12 +5850,12 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -5943,19 +5948,19 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Nason Creek Lower 08</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -5984,37 +5989,34 @@
         </is>
       </c>
       <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58">
         <v>3</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58">
         <v>5</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L58">
         <v>3</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N58">
         <v>1</v>
       </c>
       <c r="O58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R58">
         <v>2</v>
@@ -6023,10 +6025,10 @@
         <v>1</v>
       </c>
       <c r="T58">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="U58">
-        <v>0.4222222222222222</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V58">
         <v>5</v>
@@ -6036,24 +6038,24 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
+          <t>Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -6134,24 +6136,24 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>ChannelStability,Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 11</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6180,37 +6182,37 @@
         </is>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H60">
         <v>3</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L60">
         <v>3</v>
       </c>
       <c r="M60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R60">
         <v>2</v>
@@ -6219,10 +6221,10 @@
         <v>1</v>
       </c>
       <c r="T60">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="U60">
-        <v>0.4888888888888889</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V60">
         <v>5</v>
@@ -6232,24 +6234,24 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>ChannelStability,Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Nason Creek Lower 11</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -6290,7 +6292,7 @@
         <v>3</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L61">
         <v>3</v>
@@ -6302,25 +6304,25 @@
         <v>3</v>
       </c>
       <c r="O61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q61">
         <v>1</v>
       </c>
       <c r="R61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S61">
         <v>1</v>
       </c>
       <c r="T61">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U61">
-        <v>0.4666666666666667</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V61">
         <v>5</v>
@@ -6330,24 +6332,24 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality,Riparian-Disturbance,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -6428,24 +6430,24 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -6486,10 +6488,10 @@
         <v>3</v>
       </c>
       <c r="K63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M63">
         <v>3</v>
@@ -6500,20 +6502,23 @@
       <c r="O63">
         <v>3</v>
       </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
       <c r="Q63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S63">
         <v>1</v>
       </c>
       <c r="T63">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="U63">
-        <v>0.6</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V63">
         <v>5</v>
@@ -6523,34 +6528,34 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Twisp River Lower 01</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -6569,49 +6574,46 @@
         </is>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H64">
         <v>3</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O64">
         <v>3</v>
       </c>
-      <c r="P64">
-        <v>1</v>
-      </c>
       <c r="Q64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S64">
         <v>1</v>
       </c>
       <c r="T64">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="U64">
-        <v>0.3555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="V64">
         <v>5</v>
@@ -6621,24 +6623,24 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Twisp River Lower 01</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -6679,7 +6681,7 @@
         <v>5</v>
       </c>
       <c r="K65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -6688,7 +6690,7 @@
         <v>1</v>
       </c>
       <c r="N65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O65">
         <v>3</v>
@@ -6697,19 +6699,19 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S65">
         <v>1</v>
       </c>
       <c r="T65">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="U65">
-        <v>0.4666666666666667</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="V65">
         <v>5</v>
@@ -6719,24 +6721,24 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,FloodplainConnectivity,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>ChannelStability,Stability,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -6777,7 +6779,7 @@
         <v>5</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -6789,7 +6791,7 @@
         <v>3</v>
       </c>
       <c r="O66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P66">
         <v>1</v>
@@ -6804,10 +6806,10 @@
         <v>1</v>
       </c>
       <c r="T66">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U66">
-        <v>0.3777777777777778</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V66">
         <v>5</v>
@@ -6817,24 +6819,24 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>BankStability,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel/Side-Channels,Riparian</t>
+          <t>ChannelStability,Stability,Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -6915,24 +6917,24 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel/Side-Channels,Riparian</t>
+          <t>ChannelStability,Stability,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -7013,24 +7015,24 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel/Side-Channels,Riparian</t>
+          <t>ChannelStability,Stability,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -7062,16 +7064,16 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -7080,28 +7082,28 @@
         <v>1</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P69">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S69">
         <v>1</v>
       </c>
       <c r="T69">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U69">
-        <v>0.3333333333333333</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V69">
         <v>5</v>
@@ -7111,24 +7113,24 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>ChannelStability,Stability,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -7157,13 +7159,13 @@
         </is>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J70">
         <v>3</v>
@@ -7175,31 +7177,31 @@
         <v>1</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S70">
         <v>1</v>
       </c>
       <c r="T70">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="U70">
-        <v>0.5555555555555556</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V70">
         <v>5</v>
@@ -7209,24 +7211,24 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -7264,13 +7266,13 @@
         <v>3</v>
       </c>
       <c r="J71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M71">
         <v>3</v>
@@ -7279,25 +7281,25 @@
         <v>3</v>
       </c>
       <c r="O71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S71">
         <v>1</v>
       </c>
       <c r="T71">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U71">
-        <v>0.5111111111111111</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V71">
         <v>5</v>
@@ -7307,24 +7309,24 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -7356,28 +7358,28 @@
         <v>3</v>
       </c>
       <c r="H72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K72">
         <v>1</v>
       </c>
       <c r="L72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P72">
         <v>1</v>
@@ -7392,10 +7394,10 @@
         <v>1</v>
       </c>
       <c r="T72">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U72">
-        <v>0.4888888888888889</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V72">
         <v>5</v>
@@ -7405,24 +7407,24 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>CoarseSubstrate</t>
+          <t>BankStability,ChannelStability,Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Twisp River Lower 09</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -7454,46 +7456,46 @@
         <v>3</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K73">
         <v>1</v>
       </c>
       <c r="L73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P73">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S73">
         <v>1</v>
       </c>
       <c r="T73">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="U73">
-        <v>0.5777777777777777</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V73">
         <v>5</v>
@@ -7503,24 +7505,24 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>Stability,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,CoarseSubstrate,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -7558,13 +7560,13 @@
         <v>3</v>
       </c>
       <c r="J74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K74">
         <v>1</v>
       </c>
       <c r="L74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M74">
         <v>3</v>
@@ -7579,19 +7581,19 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S74">
         <v>1</v>
       </c>
       <c r="T74">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U74">
-        <v>0.5111111111111111</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V74">
         <v>5</v>
@@ -7601,24 +7603,24 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>BankStability,ChannelStability,Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -7628,7 +7630,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -7656,67 +7658,67 @@
         <v>3</v>
       </c>
       <c r="J75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L75">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M75">
         <v>3</v>
       </c>
       <c r="N75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S75">
         <v>1</v>
       </c>
       <c r="T75">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="U75">
-        <v>0.7333333333333333</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V75">
         <v>5</v>
       </c>
       <c r="W75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -7760,7 +7762,7 @@
         <v>5</v>
       </c>
       <c r="L76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M76">
         <v>3</v>
@@ -7784,10 +7786,10 @@
         <v>1</v>
       </c>
       <c r="T76">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U76">
-        <v>0.7777777777777778</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V76">
         <v>5</v>
@@ -7802,19 +7804,19 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>Stability,FloodplainConnectivity,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>Stability,FloodplainConnectivity,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -7843,31 +7845,31 @@
         </is>
       </c>
       <c r="G77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H77">
         <v>3</v>
       </c>
       <c r="I77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L77">
         <v>5</v>
       </c>
       <c r="M77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P77">
         <v>3</v>
@@ -7882,37 +7884,37 @@
         <v>1</v>
       </c>
       <c r="T77">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="U77">
-        <v>0.6222222222222222</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V77">
         <v>5</v>
       </c>
       <c r="W77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,FloodplainConnectivity,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,FloodplainConnectivity,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -7998,19 +8000,19 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>ChannelStability,CoarseSubstrate,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>ChannelStability,CoarseSubstrate,Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -8096,19 +8098,19 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>ChannelStability,CoarseSubstrate,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>ChannelStability,CoarseSubstrate,Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -8137,16 +8139,16 @@
         </is>
       </c>
       <c r="G80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H80">
         <v>3</v>
       </c>
       <c r="I80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -8155,31 +8157,31 @@
         <v>5</v>
       </c>
       <c r="M80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N80">
         <v>3</v>
       </c>
       <c r="O80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P80">
         <v>3</v>
       </c>
       <c r="Q80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T80">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U80">
-        <v>0.6666666666666666</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V80">
         <v>5</v>
@@ -8189,24 +8191,24 @@
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>Stability,FloodplainConnectivity,Off-Channel/Side-Channels</t>
+          <t>ChannelStability,CoarseSubstrate,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>ChannelStability,CoarseSubstrate,Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -8292,29 +8294,29 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>Stability,FloodplainConnectivity,Off-Channel/Side-Channels</t>
+          <t>BankStability,ChannelStability,Stability,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 03</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -8333,19 +8335,19 @@
         </is>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H82">
         <v>3</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J82">
         <v>5</v>
       </c>
       <c r="K82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L82">
         <v>5</v>
@@ -8357,25 +8359,25 @@
         <v>3</v>
       </c>
       <c r="O82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P82">
         <v>3</v>
       </c>
       <c r="Q82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S82">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T82">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U82">
-        <v>0.6444444444444445</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V82">
         <v>5</v>
@@ -8383,21 +8385,26 @@
       <c r="W82">
         <v>1</v>
       </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 04</t>
+          <t>Wenatchee River Beaver 02</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -8426,28 +8433,28 @@
         </is>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J83">
         <v>5</v>
       </c>
       <c r="K83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O83">
         <v>3</v>
@@ -8456,41 +8463,46 @@
         <v>3</v>
       </c>
       <c r="Q83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S83">
         <v>3</v>
       </c>
       <c r="T83">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U83">
-        <v>0.6444444444444445</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V83">
         <v>5</v>
       </c>
       <c r="W83">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow</t>
+        </is>
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 05</t>
+          <t>Wenatchee River Beaver 03</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -8522,25 +8534,25 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O84">
         <v>3</v>
@@ -8549,19 +8561,19 @@
         <v>3</v>
       </c>
       <c r="Q84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S84">
         <v>3</v>
       </c>
       <c r="T84">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="U84">
-        <v>0.4666666666666667</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V84">
         <v>5</v>
@@ -8571,24 +8583,24 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels</t>
+          <t>BankStability,Flow-SummerBaseFlow,Riparian-Disturbance</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>ChannelStability,Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 06</t>
+          <t>Wenatchee River Beaver 04</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -8629,37 +8641,37 @@
         <v>5</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L85">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O85">
         <v>3</v>
       </c>
       <c r="P85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q85">
         <v>1</v>
       </c>
       <c r="R85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S85">
         <v>3</v>
       </c>
       <c r="T85">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="U85">
-        <v>0.4888888888888889</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V85">
         <v>5</v>
@@ -8669,24 +8681,24 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>BankStability,Flow-SummerBaseFlow,Riparian-Disturbance</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>ChannelStability,Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 07</t>
+          <t>Wenatchee River Beaver 05</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -8718,19 +8730,19 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K86">
         <v>1</v>
       </c>
       <c r="L86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M86">
         <v>1</v>
@@ -8742,22 +8754,22 @@
         <v>3</v>
       </c>
       <c r="P86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S86">
         <v>3</v>
       </c>
       <c r="T86">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="U86">
-        <v>0.4888888888888889</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V86">
         <v>5</v>
@@ -8767,24 +8779,24 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 08</t>
+          <t>Wenatchee River Beaver 06</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -8813,13 +8825,13 @@
         </is>
       </c>
       <c r="G87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H87">
         <v>3</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J87">
         <v>5</v>
@@ -8828,34 +8840,34 @@
         <v>1</v>
       </c>
       <c r="L87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M87">
         <v>1</v>
       </c>
       <c r="N87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q87">
         <v>1</v>
       </c>
       <c r="R87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T87">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="U87">
-        <v>0.4888888888888889</v>
+        <v>0.4</v>
       </c>
       <c r="V87">
         <v>5</v>
@@ -8865,24 +8877,24 @@
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel/Side-Channels,Riparian</t>
+          <t>ChannelStability,Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 09</t>
+          <t>Wenatchee River Beaver 07</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -8911,13 +8923,13 @@
         </is>
       </c>
       <c r="G88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H88">
         <v>3</v>
       </c>
       <c r="I88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J88">
         <v>5</v>
@@ -8926,7 +8938,7 @@
         <v>1</v>
       </c>
       <c r="L88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M88">
         <v>1</v>
@@ -8935,25 +8947,25 @@
         <v>1</v>
       </c>
       <c r="O88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T88">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="U88">
-        <v>0.4888888888888889</v>
+        <v>0.4</v>
       </c>
       <c r="V88">
         <v>5</v>
@@ -8963,24 +8975,24 @@
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>Riparian</t>
+          <t>ChannelStability,Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 10</t>
+          <t>Wenatchee River Beaver 08</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -9009,49 +9021,49 @@
         </is>
       </c>
       <c r="G89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H89">
         <v>3</v>
       </c>
       <c r="I89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J89">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N89">
         <v>3</v>
       </c>
       <c r="O89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P89">
         <v>3</v>
       </c>
       <c r="Q89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S89">
         <v>1</v>
       </c>
       <c r="T89">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="U89">
-        <v>0.6222222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="V89">
         <v>5</v>
@@ -9061,24 +9073,24 @@
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian-Disturbance,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Off-Channel/Side-Channels,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 11</t>
+          <t>Wenatchee River Beaver 09</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -9110,28 +9122,28 @@
         <v>5</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J90">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K90">
         <v>1</v>
       </c>
       <c r="L90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P90">
         <v>3</v>
@@ -9146,10 +9158,10 @@
         <v>1</v>
       </c>
       <c r="T90">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="U90">
-        <v>0.5555555555555556</v>
+        <v>0.4</v>
       </c>
       <c r="V90">
         <v>5</v>
@@ -9159,115 +9171,311 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>ChannelStability,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>ChannelStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
+          <t>Wenatchee River Beaver 10</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G91">
+        <v>5</v>
+      </c>
+      <c r="H91">
+        <v>3</v>
+      </c>
+      <c r="I91">
+        <v>4</v>
+      </c>
+      <c r="J91">
+        <v>3</v>
+      </c>
+      <c r="K91">
+        <v>3</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>3</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91">
+        <v>3</v>
+      </c>
+      <c r="P91">
+        <v>3</v>
+      </c>
+      <c r="Q91">
+        <v>3</v>
+      </c>
+      <c r="R91">
+        <v>3</v>
+      </c>
+      <c r="S91">
+        <v>1</v>
+      </c>
+      <c r="T91">
+        <v>24</v>
+      </c>
+      <c r="U91">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="V91">
+        <v>5</v>
+      </c>
+      <c r="W91">
+        <v>1</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>ChannelStability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+        </is>
+      </c>
+      <c r="Z91" t="inlineStr">
+        <is>
+          <t>ChannelStability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 11</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G92">
+        <v>5</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>3</v>
+      </c>
+      <c r="J92">
+        <v>3</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>3</v>
+      </c>
+      <c r="N92">
+        <v>3</v>
+      </c>
+      <c r="O92">
+        <v>3</v>
+      </c>
+      <c r="P92">
+        <v>3</v>
+      </c>
+      <c r="Q92">
+        <v>3</v>
+      </c>
+      <c r="R92">
+        <v>3</v>
+      </c>
+      <c r="S92">
+        <v>1</v>
+      </c>
+      <c r="T92">
+        <v>21</v>
+      </c>
+      <c r="U92">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="V92">
+        <v>5</v>
+      </c>
+      <c r="W92">
+        <v>1</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>ChannelStability,Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+        </is>
+      </c>
+      <c r="Z92" t="inlineStr">
+        <is>
+          <t>ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
           <t>Wenatchee River Beaver 12</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>Wenatchee</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91">
-        <v>3</v>
-      </c>
-      <c r="I91">
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>3</v>
+      </c>
+      <c r="I93">
         <v>2</v>
       </c>
-      <c r="J91">
-        <v>5</v>
-      </c>
-      <c r="K91">
-        <v>1</v>
-      </c>
-      <c r="L91">
-        <v>5</v>
-      </c>
-      <c r="M91">
-        <v>3</v>
-      </c>
-      <c r="N91">
-        <v>3</v>
-      </c>
-      <c r="O91">
-        <v>3</v>
-      </c>
-      <c r="P91">
-        <v>3</v>
-      </c>
-      <c r="Q91">
-        <v>3</v>
-      </c>
-      <c r="R91">
-        <v>3</v>
-      </c>
-      <c r="S91">
-        <v>1</v>
-      </c>
-      <c r="T91">
-        <v>26</v>
-      </c>
-      <c r="U91">
-        <v>0.5777777777777777</v>
-      </c>
-      <c r="V91">
-        <v>5</v>
-      </c>
-      <c r="W91">
-        <v>1</v>
-      </c>
-      <c r="X91" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y91" t="inlineStr">
-        <is>
-          <t>Stability,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z91" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+      <c r="J93">
+        <v>5</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>3</v>
+      </c>
+      <c r="N93">
+        <v>3</v>
+      </c>
+      <c r="O93">
+        <v>3</v>
+      </c>
+      <c r="P93">
+        <v>3</v>
+      </c>
+      <c r="Q93">
+        <v>3</v>
+      </c>
+      <c r="R93">
+        <v>3</v>
+      </c>
+      <c r="S93">
+        <v>1</v>
+      </c>
+      <c r="T93">
+        <v>22</v>
+      </c>
+      <c r="U93">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="V93">
+        <v>5</v>
+      </c>
+      <c r="W93">
+        <v>1</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>ChannelStability,Stability,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+        </is>
+      </c>
+      <c r="Z93" t="inlineStr">
+        <is>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
